--- a/recursos/DataBase/Base de Datos 035 v1.xlsx
+++ b/recursos/DataBase/Base de Datos 035 v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oavalos/Documents/Personal/Proyecto 035/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oavalos/Documents/Personal/Proyecto 035/Codigo/recursos/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4113839C-4277-A041-8141-C0A7023E847A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D25FC-7625-9741-B18A-55CC36D8040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="560" windowWidth="38400" windowHeight="21100" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura v1" sheetId="7" r:id="rId1"/>
@@ -203,9 +203,6 @@
     <t>cve_pregunta</t>
   </si>
   <si>
-    <t>id_tipo_pregunta</t>
-  </si>
-  <si>
     <t>cve_pregunta_tipo</t>
   </si>
   <si>
@@ -384,6 +381,9 @@
   </si>
   <si>
     <t>Tabla: tbl_actividad</t>
+  </si>
+  <si>
+    <t>id_pregunta_tipo</t>
   </si>
 </sst>
 </file>
@@ -935,6 +935,61 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -962,27 +1017,9 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1001,43 +1038,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B9ABE7-9E51-B84C-A716-4D1C8217E878}">
   <dimension ref="A1:AU77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2236,23 +2236,23 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="Z6" s="130"/>
-      <c r="AA6" s="139" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB6" s="140"/>
-      <c r="AC6" s="140"/>
-      <c r="AD6" s="140"/>
-      <c r="AE6" s="141"/>
+      <c r="AA6" s="158" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB6" s="159"/>
+      <c r="AC6" s="159"/>
+      <c r="AD6" s="159"/>
+      <c r="AE6" s="160"/>
       <c r="AF6" s="131"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-      <c r="AI6" s="142" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ6" s="143"/>
-      <c r="AK6" s="143"/>
-      <c r="AL6" s="144"/>
-      <c r="AM6" s="145"/>
+      <c r="AI6" s="146" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="161"/>
+      <c r="AM6" s="148"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
@@ -2359,7 +2359,7 @@
         <v>27</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF9" s="131"/>
       <c r="AG9" s="1"/>
@@ -2375,7 +2375,7 @@
         <v>27</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD11" s="14" t="s">
         <v>27</v>
@@ -2448,22 +2448,22 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
-      <c r="AQ11" s="146" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR11" s="147"/>
-      <c r="AS11" s="147"/>
-      <c r="AT11" s="147"/>
-      <c r="AU11" s="148"/>
+      <c r="AQ11" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR11" s="144"/>
+      <c r="AS11" s="144"/>
+      <c r="AT11" s="144"/>
+      <c r="AU11" s="145"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="S12" s="152" t="s">
-        <v>86</v>
-      </c>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="154"/>
+      <c r="S12" s="165" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="166"/>
+      <c r="U12" s="166"/>
+      <c r="V12" s="166"/>
+      <c r="W12" s="167"/>
       <c r="Z12" s="130"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="14" t="s">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V15" s="14" t="s">
         <v>27</v>
@@ -2636,13 +2636,13 @@
       <c r="AF15" s="131"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ15" s="150"/>
-      <c r="AK15" s="150"/>
-      <c r="AL15" s="150"/>
-      <c r="AM15" s="151"/>
+      <c r="AI15" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ15" s="163"/>
+      <c r="AK15" s="163"/>
+      <c r="AL15" s="163"/>
+      <c r="AM15" s="164"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
@@ -2789,7 +2789,7 @@
       <c r="Z18" s="130"/>
       <c r="AA18" s="76"/>
       <c r="AB18" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC18" s="13" t="s">
         <v>20</v>
@@ -2798,7 +2798,7 @@
         <v>27</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF18" s="131"/>
       <c r="AG18" s="1"/>
@@ -2889,7 +2889,7 @@
     <row r="20" spans="11:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S20" s="76"/>
       <c r="T20" s="75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U20" s="75" t="s">
         <v>23</v>
@@ -2930,7 +2930,7 @@
     <row r="21" spans="11:47" x14ac:dyDescent="0.2">
       <c r="S21" s="76"/>
       <c r="T21" s="75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U21" s="48" t="s">
         <v>29</v>
@@ -2962,7 +2962,7 @@
     <row r="22" spans="11:47" x14ac:dyDescent="0.2">
       <c r="S22" s="76"/>
       <c r="T22" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U22" s="48" t="s">
         <v>22</v>
@@ -2974,7 +2974,7 @@
     <row r="23" spans="11:47" x14ac:dyDescent="0.2">
       <c r="S23" s="76"/>
       <c r="T23" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U23" s="48" t="s">
         <v>22</v>
@@ -2985,7 +2985,7 @@
     <row r="24" spans="11:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S24" s="76"/>
       <c r="T24" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U24" s="48" t="s">
         <v>22</v>
@@ -2996,25 +2996,25 @@
     <row r="25" spans="11:47" x14ac:dyDescent="0.2">
       <c r="S25" s="76"/>
       <c r="T25" s="75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U25" s="48" t="s">
         <v>22</v>
       </c>
       <c r="V25" s="75"/>
       <c r="W25" s="77"/>
-      <c r="AA25" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB25" s="134"/>
-      <c r="AC25" s="134"/>
-      <c r="AD25" s="134"/>
-      <c r="AE25" s="135"/>
+      <c r="AA25" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB25" s="153"/>
+      <c r="AC25" s="153"/>
+      <c r="AD25" s="153"/>
+      <c r="AE25" s="154"/>
     </row>
     <row r="26" spans="11:47" x14ac:dyDescent="0.2">
       <c r="S26" s="76"/>
       <c r="T26" s="75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U26" s="48" t="s">
         <v>23</v>
@@ -3040,10 +3040,10 @@
     <row r="27" spans="11:47" x14ac:dyDescent="0.2">
       <c r="S27" s="76"/>
       <c r="T27" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U27" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V27" s="75"/>
       <c r="W27" s="77"/>
@@ -3064,10 +3064,10 @@
     <row r="28" spans="11:47" x14ac:dyDescent="0.2">
       <c r="S28" s="76"/>
       <c r="T28" s="75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U28" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V28" s="75"/>
       <c r="W28" s="77"/>
@@ -3086,10 +3086,10 @@
     <row r="29" spans="11:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S29" s="76"/>
       <c r="T29" s="75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U29" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V29" s="75"/>
       <c r="W29" s="77"/>
@@ -3110,7 +3110,7 @@
     <row r="30" spans="11:47" x14ac:dyDescent="0.2">
       <c r="S30" s="76"/>
       <c r="T30" s="75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U30" s="48" t="s">
         <v>29</v>
@@ -3132,13 +3132,13 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="11:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="158" t="s">
-        <v>88</v>
-      </c>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="160"/>
+      <c r="K32" s="137" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="139"/>
       <c r="S32" s="88"/>
       <c r="T32" s="14" t="s">
         <v>7</v>
@@ -3176,20 +3176,20 @@
         <v>27</v>
       </c>
       <c r="W33" s="4"/>
-      <c r="AA33" s="146" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB33" s="147"/>
-      <c r="AC33" s="147"/>
-      <c r="AD33" s="147"/>
-      <c r="AE33" s="148"/>
+      <c r="AA33" s="143" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB33" s="144"/>
+      <c r="AC33" s="144"/>
+      <c r="AD33" s="144"/>
+      <c r="AE33" s="145"/>
     </row>
     <row r="34" spans="3:39" x14ac:dyDescent="0.2">
       <c r="K34" s="59" t="s">
         <v>16</v>
       </c>
       <c r="L34" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M34" s="55" t="s">
         <v>20</v>
@@ -3228,7 +3228,7 @@
         <v>33</v>
       </c>
       <c r="L35" s="122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M35" s="47" t="s">
         <v>20</v>
@@ -3267,7 +3267,7 @@
     <row r="36" spans="3:39" x14ac:dyDescent="0.2">
       <c r="K36" s="125"/>
       <c r="L36" s="107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M36" s="98" t="s">
         <v>20</v>
@@ -3276,7 +3276,7 @@
         <v>27</v>
       </c>
       <c r="O36" s="108" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA36" s="76"/>
       <c r="AB36" s="75" t="s">
@@ -3293,14 +3293,14 @@
     <row r="37" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K37" s="83"/>
       <c r="L37" s="80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M37" s="65" t="s">
         <v>20</v>
       </c>
       <c r="N37" s="65"/>
       <c r="O37" s="84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA37" s="78"/>
       <c r="AB37" s="15" t="s">
@@ -3319,7 +3319,7 @@
     <row r="38" spans="3:39" x14ac:dyDescent="0.2">
       <c r="K38" s="76"/>
       <c r="L38" s="75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M38" s="14" t="s">
         <v>40</v>
@@ -3342,41 +3342,41 @@
     </row>
     <row r="45" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C46" s="161" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="162"/>
-      <c r="E46" s="162"/>
-      <c r="F46" s="162"/>
-      <c r="G46" s="163"/>
-      <c r="K46" s="136" t="s">
-        <v>116</v>
-      </c>
-      <c r="L46" s="137"/>
-      <c r="M46" s="137"/>
-      <c r="N46" s="137"/>
-      <c r="O46" s="138"/>
-      <c r="S46" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="T46" s="143"/>
-      <c r="U46" s="143"/>
-      <c r="V46" s="143"/>
-      <c r="W46" s="145"/>
-      <c r="AA46" s="164" t="s">
+      <c r="C46" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="142"/>
+      <c r="K46" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
+      <c r="N46" s="156"/>
+      <c r="O46" s="157"/>
+      <c r="S46" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="AB46" s="165"/>
-      <c r="AC46" s="165"/>
-      <c r="AD46" s="165"/>
-      <c r="AE46" s="166"/>
-      <c r="AI46" s="133" t="s">
+      <c r="T46" s="147"/>
+      <c r="U46" s="147"/>
+      <c r="V46" s="147"/>
+      <c r="W46" s="148"/>
+      <c r="AA46" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="AJ46" s="134"/>
-      <c r="AK46" s="134"/>
-      <c r="AL46" s="134"/>
-      <c r="AM46" s="135"/>
+      <c r="AB46" s="150"/>
+      <c r="AC46" s="150"/>
+      <c r="AD46" s="150"/>
+      <c r="AE46" s="151"/>
+      <c r="AI46" s="152" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ46" s="153"/>
+      <c r="AK46" s="153"/>
+      <c r="AL46" s="153"/>
+      <c r="AM46" s="154"/>
     </row>
     <row r="47" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C47" s="49" t="s">
@@ -3460,7 +3460,7 @@
         <v>16</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" s="53" t="s">
         <v>20</v>
@@ -3473,7 +3473,7 @@
         <v>16</v>
       </c>
       <c r="L48" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M48" s="47" t="s">
         <v>20</v>
@@ -3512,7 +3512,7 @@
         <v>16</v>
       </c>
       <c r="AJ48" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK48" s="65" t="s">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="122" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E49" s="47" t="s">
         <v>20</v>
@@ -3540,7 +3540,7 @@
         <v>33</v>
       </c>
       <c r="L49" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M49" s="109" t="s">
         <v>20</v>
@@ -3566,7 +3566,7 @@
         <v>33</v>
       </c>
       <c r="AB49" s="101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC49" s="102" t="s">
         <v>20</v>
@@ -3579,7 +3579,7 @@
         <v>33</v>
       </c>
       <c r="AJ49" s="107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK49" s="98" t="s">
         <v>20</v>
@@ -3605,7 +3605,7 @@
         <v>33</v>
       </c>
       <c r="L50" s="101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M50" s="101" t="s">
         <v>20</v>
@@ -3627,7 +3627,7 @@
         <v>33</v>
       </c>
       <c r="AB50" s="81" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="AC50" s="104" t="s">
         <v>20</v>
@@ -3662,7 +3662,7 @@
       <c r="G51" s="77"/>
       <c r="K51" s="76"/>
       <c r="L51" s="75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M51" s="48" t="s">
         <v>29</v>
@@ -3682,7 +3682,7 @@
       <c r="W51" s="77"/>
       <c r="AA51" s="88"/>
       <c r="AB51" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC51" s="14" t="s">
         <v>38</v>
@@ -3715,7 +3715,7 @@
       <c r="G52" s="77"/>
       <c r="K52" s="76"/>
       <c r="L52" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M52" s="48" t="s">
         <v>38</v>
@@ -3726,7 +3726,7 @@
       <c r="O52" s="77"/>
       <c r="S52" s="76"/>
       <c r="T52" s="75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U52" s="75" t="s">
         <v>20</v>
@@ -3772,7 +3772,7 @@
       <c r="G53" s="77"/>
       <c r="K53" s="76"/>
       <c r="L53" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M53" s="48" t="s">
         <v>38</v>
@@ -3781,7 +3781,7 @@
       <c r="O53" s="77"/>
       <c r="S53" s="76"/>
       <c r="T53" s="75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U53" s="75" t="s">
         <v>20</v>
@@ -3812,7 +3812,7 @@
     <row r="54" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C54" s="78"/>
       <c r="D54" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>20</v>
@@ -3821,7 +3821,7 @@
         <v>27</v>
       </c>
       <c r="G54" s="87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K54" s="88"/>
       <c r="L54" s="13" t="s">
@@ -3867,7 +3867,7 @@
     <row r="55" spans="3:39" x14ac:dyDescent="0.2">
       <c r="K55" s="88"/>
       <c r="L55" s="75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M55" s="14" t="s">
         <v>37</v>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="S55" s="128"/>
       <c r="T55" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U55" s="105" t="s">
         <v>20</v>
@@ -3926,7 +3926,7 @@
       <c r="O56" s="77"/>
       <c r="S56" s="126"/>
       <c r="T56" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U56" s="14" t="s">
         <v>37</v>
@@ -4122,7 +4122,7 @@
     <row r="62" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K62" s="118"/>
       <c r="L62" s="119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M62" s="119" t="s">
         <v>20</v>
@@ -4133,19 +4133,19 @@
       <c r="O62" s="120"/>
     </row>
     <row r="63" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="L63" s="167" t="s">
-        <v>115</v>
+      <c r="L63" s="133" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="S65" s="146" t="s">
-        <v>110</v>
-      </c>
-      <c r="T65" s="147"/>
-      <c r="U65" s="147"/>
-      <c r="V65" s="147"/>
-      <c r="W65" s="148"/>
+      <c r="S65" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="T65" s="144"/>
+      <c r="U65" s="144"/>
+      <c r="V65" s="144"/>
+      <c r="W65" s="145"/>
     </row>
     <row r="66" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K66" s="86"/>
@@ -4174,7 +4174,7 @@
         <v>16</v>
       </c>
       <c r="T67" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U67" s="42" t="s">
         <v>20</v>
@@ -4196,7 +4196,7 @@
         <v>27</v>
       </c>
       <c r="W68" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="11:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4216,13 +4216,13 @@
     </row>
     <row r="72" spans="11:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="S73" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="T73" s="156"/>
-      <c r="U73" s="156"/>
-      <c r="V73" s="156"/>
-      <c r="W73" s="157"/>
+      <c r="S73" s="134" t="s">
+        <v>110</v>
+      </c>
+      <c r="T73" s="135"/>
+      <c r="U73" s="135"/>
+      <c r="V73" s="135"/>
+      <c r="W73" s="136"/>
     </row>
     <row r="74" spans="11:24" x14ac:dyDescent="0.2">
       <c r="S74" s="112" t="s">
@@ -4246,7 +4246,7 @@
         <v>16</v>
       </c>
       <c r="T75" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U75" s="116" t="s">
         <v>20</v>
@@ -4268,7 +4268,7 @@
         <v>27</v>
       </c>
       <c r="W76" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X76" s="67"/>
     </row>
@@ -4289,13 +4289,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S73:W73"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="AA33:AE33"/>
-    <mergeCell ref="S46:W46"/>
-    <mergeCell ref="AA46:AE46"/>
-    <mergeCell ref="S65:W65"/>
     <mergeCell ref="AI46:AM46"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="AA6:AE6"/>
@@ -4304,6 +4297,13 @@
     <mergeCell ref="AI15:AM15"/>
     <mergeCell ref="S12:W12"/>
     <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="S73:W73"/>
+    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="AA33:AE33"/>
+    <mergeCell ref="S46:W46"/>
+    <mergeCell ref="AA46:AE46"/>
+    <mergeCell ref="S65:W65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/recursos/DataBase/Base de Datos 035 v1.xlsx
+++ b/recursos/DataBase/Base de Datos 035 v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oavalos/Documents/Personal/Proyecto 035/Codigo/recursos/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D25FC-7625-9741-B18A-55CC36D8040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07D8D3-9D35-BB47-BE2F-926D859F4EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
   </bookViews>
@@ -936,6 +936,72 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -963,24 +1029,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -988,54 +1036,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B9ABE7-9E51-B84C-A716-4D1C8217E878}">
   <dimension ref="A1:AU77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ56" sqref="AJ56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2236,23 +2236,23 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="Z6" s="130"/>
-      <c r="AA6" s="158" t="s">
+      <c r="AA6" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="159"/>
-      <c r="AD6" s="159"/>
-      <c r="AE6" s="160"/>
+      <c r="AB6" s="141"/>
+      <c r="AC6" s="141"/>
+      <c r="AD6" s="141"/>
+      <c r="AE6" s="142"/>
       <c r="AF6" s="131"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-      <c r="AI6" s="146" t="s">
+      <c r="AI6" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="AJ6" s="147"/>
-      <c r="AK6" s="147"/>
-      <c r="AL6" s="161"/>
-      <c r="AM6" s="148"/>
+      <c r="AJ6" s="144"/>
+      <c r="AK6" s="144"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="146"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
@@ -2448,22 +2448,22 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
-      <c r="AQ11" s="143" t="s">
+      <c r="AQ11" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="AR11" s="144"/>
-      <c r="AS11" s="144"/>
-      <c r="AT11" s="144"/>
-      <c r="AU11" s="145"/>
+      <c r="AR11" s="148"/>
+      <c r="AS11" s="148"/>
+      <c r="AT11" s="148"/>
+      <c r="AU11" s="149"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="S12" s="165" t="s">
+      <c r="S12" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166"/>
-      <c r="W12" s="167"/>
+      <c r="T12" s="154"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="155"/>
       <c r="Z12" s="130"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="14" t="s">
@@ -2636,13 +2636,13 @@
       <c r="AF15" s="131"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="162" t="s">
+      <c r="AI15" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="AJ15" s="163"/>
-      <c r="AK15" s="163"/>
-      <c r="AL15" s="163"/>
-      <c r="AM15" s="164"/>
+      <c r="AJ15" s="151"/>
+      <c r="AK15" s="151"/>
+      <c r="AL15" s="151"/>
+      <c r="AM15" s="152"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
@@ -3003,13 +3003,13 @@
       </c>
       <c r="V25" s="75"/>
       <c r="W25" s="77"/>
-      <c r="AA25" s="152" t="s">
+      <c r="AA25" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="154"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
     </row>
     <row r="26" spans="11:47" x14ac:dyDescent="0.2">
       <c r="S26" s="76"/>
@@ -3132,13 +3132,13 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="11:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="137" t="s">
+      <c r="K32" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="138"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="138"/>
-      <c r="O32" s="139"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="161"/>
       <c r="S32" s="88"/>
       <c r="T32" s="14" t="s">
         <v>7</v>
@@ -3176,13 +3176,13 @@
         <v>27</v>
       </c>
       <c r="W33" s="4"/>
-      <c r="AA33" s="143" t="s">
+      <c r="AA33" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="AB33" s="144"/>
-      <c r="AC33" s="144"/>
-      <c r="AD33" s="144"/>
-      <c r="AE33" s="145"/>
+      <c r="AB33" s="148"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="149"/>
     </row>
     <row r="34" spans="3:39" x14ac:dyDescent="0.2">
       <c r="K34" s="59" t="s">
@@ -3342,41 +3342,41 @@
     </row>
     <row r="45" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C46" s="140" t="s">
+      <c r="C46" s="162" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="142"/>
-      <c r="K46" s="155" t="s">
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="164"/>
+      <c r="K46" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
-      <c r="N46" s="156"/>
-      <c r="O46" s="157"/>
-      <c r="S46" s="146" t="s">
+      <c r="L46" s="138"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="138"/>
+      <c r="O46" s="139"/>
+      <c r="S46" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="T46" s="147"/>
-      <c r="U46" s="147"/>
-      <c r="V46" s="147"/>
-      <c r="W46" s="148"/>
-      <c r="AA46" s="149" t="s">
+      <c r="T46" s="144"/>
+      <c r="U46" s="144"/>
+      <c r="V46" s="144"/>
+      <c r="W46" s="146"/>
+      <c r="AA46" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="AB46" s="150"/>
-      <c r="AC46" s="150"/>
-      <c r="AD46" s="150"/>
-      <c r="AE46" s="151"/>
-      <c r="AI46" s="152" t="s">
+      <c r="AB46" s="166"/>
+      <c r="AC46" s="166"/>
+      <c r="AD46" s="166"/>
+      <c r="AE46" s="167"/>
+      <c r="AI46" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="AJ46" s="153"/>
-      <c r="AK46" s="153"/>
-      <c r="AL46" s="153"/>
-      <c r="AM46" s="154"/>
+      <c r="AJ46" s="135"/>
+      <c r="AK46" s="135"/>
+      <c r="AL46" s="135"/>
+      <c r="AM46" s="136"/>
     </row>
     <row r="47" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C47" s="49" t="s">
@@ -4139,13 +4139,13 @@
     </row>
     <row r="64" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="S65" s="143" t="s">
+      <c r="S65" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="T65" s="144"/>
-      <c r="U65" s="144"/>
-      <c r="V65" s="144"/>
-      <c r="W65" s="145"/>
+      <c r="T65" s="148"/>
+      <c r="U65" s="148"/>
+      <c r="V65" s="148"/>
+      <c r="W65" s="149"/>
     </row>
     <row r="66" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K66" s="86"/>
@@ -4216,13 +4216,13 @@
     </row>
     <row r="72" spans="11:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="S73" s="134" t="s">
+      <c r="S73" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="T73" s="135"/>
-      <c r="U73" s="135"/>
-      <c r="V73" s="135"/>
-      <c r="W73" s="136"/>
+      <c r="T73" s="157"/>
+      <c r="U73" s="157"/>
+      <c r="V73" s="157"/>
+      <c r="W73" s="158"/>
     </row>
     <row r="74" spans="11:24" x14ac:dyDescent="0.2">
       <c r="S74" s="112" t="s">
@@ -4289,6 +4289,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S73:W73"/>
+    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="AA33:AE33"/>
+    <mergeCell ref="S46:W46"/>
+    <mergeCell ref="AA46:AE46"/>
+    <mergeCell ref="S65:W65"/>
     <mergeCell ref="AI46:AM46"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="AA6:AE6"/>
@@ -4297,13 +4304,6 @@
     <mergeCell ref="AI15:AM15"/>
     <mergeCell ref="S12:W12"/>
     <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="S73:W73"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="AA33:AE33"/>
-    <mergeCell ref="S46:W46"/>
-    <mergeCell ref="AA46:AE46"/>
-    <mergeCell ref="S65:W65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/recursos/DataBase/Base de Datos 035 v1.xlsx
+++ b/recursos/DataBase/Base de Datos 035 v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oavalos/Documents/Personal/Proyecto 035/Codigo/recursos/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07D8D3-9D35-BB47-BE2F-926D859F4EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A837EC-07F2-E24F-A3A9-DDF57DE28EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="121">
   <si>
     <t>nombre</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>id_pregunta_tipo</t>
+  </si>
+  <si>
+    <t>Tabla: tbl_productos</t>
+  </si>
+  <si>
+    <t>cve_producto</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>id_producto</t>
   </si>
 </sst>
 </file>
@@ -725,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -924,10 +936,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -936,6 +944,12 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1059,13 +1073,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -1114,13 +1128,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -1169,13 +1183,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>800101</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>107626</xdr:rowOff>
@@ -1224,13 +1238,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>4</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>105830</xdr:rowOff>
@@ -1279,13 +1293,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>1854201</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>9624</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>115458</xdr:rowOff>
@@ -1334,13 +1348,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>108322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>814296</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -1389,13 +1403,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>3126894</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>125076</xdr:rowOff>
@@ -1444,13 +1458,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>2447636</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>96212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>827424</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
@@ -1499,13 +1513,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>3285066</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>8081</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>113916</xdr:rowOff>
@@ -1554,126 +1568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1712575</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2199268</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9621</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Conector angular 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD7F045-808F-2541-9D76-090107D76E94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="8774545" y="12440227"/>
-          <a:ext cx="1933864" cy="413712"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 32925"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>865276</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>241301</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>125602</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Conector angular 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B945A-9768-BB44-A1BD-6490F5DF26F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="19242176" y="3060699"/>
-          <a:ext cx="7808825" cy="7263003"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 62074"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>308162</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>121397</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>23093</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7606</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>115456</xdr:rowOff>
+      <xdr:rowOff>99970</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1688,8 +1592,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="29191324" y="16248529"/>
-          <a:ext cx="4057210" cy="2702148"/>
+          <a:off x="23495000" y="11941099"/>
+          <a:ext cx="4142850" cy="3677651"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1719,16 +1623,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1727200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2137318</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>170367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>965202</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1861</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114297</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1742,13 +1646,13 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="9296400" y="12763498"/>
-          <a:ext cx="2806702" cy="190502"/>
+        <a:xfrm rot="10800000">
+          <a:off x="23433050" y="9509513"/>
+          <a:ext cx="4199055" cy="563443"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 30769"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1774,16 +1678,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2710366</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108415</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1798,12 +1702,177 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="21742400" y="9067800"/>
-          <a:ext cx="3175000" cy="2692400"/>
+          <a:off x="24006098" y="7441580"/>
+          <a:ext cx="3600604" cy="1603298"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 22000"/>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1479341</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>125604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13956</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>125605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector angular 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E0EFD0-67FF-3D41-9DAE-1770F43DB88B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11471868" y="9183077"/>
+          <a:ext cx="5568462" cy="1256044"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1229112</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>111820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>773771</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>99122</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector angular 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2378185-AB83-D04E-8E64-54324CACD29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="32948136" y="10054991"/>
+          <a:ext cx="4609172" cy="188643"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35137"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15488</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>758283</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123901</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector angular 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7971A15E-C544-9C4B-923A-09C2CB3AA616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="24455244" y="3054501"/>
+          <a:ext cx="13086576" cy="6207205"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9880"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2127,2183 +2196,2293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B9ABE7-9E51-B84C-A716-4D1C8217E878}">
-  <dimension ref="A1:AU77"/>
+  <dimension ref="A1:BB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ56" sqref="AJ56"/>
+    <sheetView tabSelected="1" topLeftCell="N30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="57.6640625" customWidth="1"/>
-    <col min="35" max="35" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" customWidth="1"/>
-    <col min="45" max="45" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="9" width="23.1640625" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.5" customWidth="1"/>
+    <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="42" max="42" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18" customWidth="1"/>
+    <col min="52" max="52" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:54" ht="37" x14ac:dyDescent="0.45">
       <c r="A1" s="66" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
-      <c r="AI1" s="132"/>
-      <c r="AJ1" s="132"/>
-      <c r="AK1" s="132"/>
-      <c r="AL1" s="132"/>
-      <c r="AM1" s="132"/>
-      <c r="AN1" s="132"/>
-      <c r="AO1" s="132"/>
-      <c r="AP1" s="132"/>
-      <c r="AQ1" s="132"/>
-      <c r="AR1" s="132"/>
-      <c r="AS1" s="132"/>
-      <c r="AT1" s="132"/>
-      <c r="AU1" s="132"/>
-    </row>
-    <row r="5" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="130"/>
-      <c r="AF5" s="130"/>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="140" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="130"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="130"/>
+      <c r="AJ1" s="130"/>
+      <c r="AK1" s="130"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="130"/>
+      <c r="AN1" s="130"/>
+      <c r="AO1" s="130"/>
+      <c r="AP1" s="130"/>
+      <c r="AQ1" s="130"/>
+      <c r="AR1" s="130"/>
+      <c r="AS1" s="130"/>
+      <c r="AT1" s="130"/>
+      <c r="AU1" s="130"/>
+      <c r="AV1" s="130"/>
+      <c r="AW1" s="130"/>
+      <c r="AX1" s="130"/>
+      <c r="AY1" s="130"/>
+      <c r="AZ1" s="130"/>
+      <c r="BA1" s="130"/>
+      <c r="BB1" s="130"/>
+    </row>
+    <row r="5" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG5" s="128"/>
+      <c r="AH5" s="128"/>
+      <c r="AI5" s="128"/>
+      <c r="AJ5" s="128"/>
+      <c r="AK5" s="128"/>
+      <c r="AL5" s="128"/>
+      <c r="AM5" s="128"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AG6" s="128"/>
+      <c r="AH6" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="141"/>
-      <c r="AD6" s="141"/>
-      <c r="AE6" s="142"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ6" s="144"/>
-      <c r="AK6" s="144"/>
-      <c r="AL6" s="145"/>
-      <c r="AM6" s="146"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="144"/>
+      <c r="AM6" s="129"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
+      <c r="AP6" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ6" s="146"/>
+      <c r="AR6" s="146"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="148"/>
       <c r="AU6" s="1"/>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="72" t="s">
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AG7" s="128"/>
+      <c r="AH7" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="73" t="s">
+      <c r="AI7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AC7" s="73" t="s">
+      <c r="AJ7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AD7" s="73" t="s">
+      <c r="AK7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="AE7" s="74" t="s">
+      <c r="AL7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AF7" s="131"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ7" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL7" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM7" s="29" t="s">
-        <v>14</v>
-      </c>
+      <c r="AM7" s="129"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
+      <c r="AP7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT7" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="AU7" s="1"/>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="Z8" s="130"/>
-      <c r="AA8" s="69" t="s">
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AG8" s="128"/>
+      <c r="AH8" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="AB8" s="70" t="s">
+      <c r="AI8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AC8" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD8" s="70" t="s">
+      <c r="AJ8" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK8" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ8" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL8" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM8" s="7"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="129"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
+      <c r="AP8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT8" s="7"/>
       <c r="AU8" s="1"/>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="14" t="s">
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AG9" s="128"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AC9" s="14" t="s">
+      <c r="AJ9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE9" s="8" t="s">
+      <c r="AK9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AF9" s="131"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="AM9" s="129"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT9" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="AU9" s="1"/>
-    </row>
-    <row r="10" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="14" t="s">
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+    </row>
+    <row r="10" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AC10" s="14" t="s">
+      <c r="AJ10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AD10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="131"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM10" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="AK10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="129"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT10" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="AU10" s="1"/>
-    </row>
-    <row r="11" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="14" t="s">
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+    </row>
+    <row r="11" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG11" s="128"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AC11" s="14" t="s">
+      <c r="AJ11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AD11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="131"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
+      <c r="AK11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="129"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="147" t="s">
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="AR11" s="148"/>
-      <c r="AS11" s="148"/>
-      <c r="AT11" s="148"/>
-      <c r="AU11" s="149"/>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="S12" s="153" t="s">
+      <c r="AY11" s="150"/>
+      <c r="AZ11" s="150"/>
+      <c r="BA11" s="150"/>
+      <c r="BB11" s="151"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="Z12" s="155" t="s">
         <v>85</v>
       </c>
-      <c r="T12" s="154"/>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="155"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="14" t="s">
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="157"/>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AC12" s="14" t="s">
+      <c r="AJ12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AD12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE12" s="4" t="s">
+      <c r="AK12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
+      <c r="AM12" s="129"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="38" t="s">
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AR12" s="39" t="s">
+      <c r="AY12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AS12" s="39" t="s">
+      <c r="AZ12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AT12" s="39" t="s">
+      <c r="BA12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AU12" s="40" t="s">
+      <c r="BB12" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="S13" s="21" t="s">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="Z13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="22" t="s">
+      <c r="AA13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="22" t="s">
+      <c r="AB13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="V13" s="22" t="s">
+      <c r="AC13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="W13" s="23" t="s">
+      <c r="AD13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="130"/>
-      <c r="AA13" s="30" t="s">
+      <c r="AG13" s="128"/>
+      <c r="AH13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AB13" s="31" t="s">
+      <c r="AI13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AC13" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD13" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
+      <c r="AJ13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="129"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="41" t="s">
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="AR13" s="42" t="s">
+      <c r="AY13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AS13" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT13" s="42" t="s">
+      <c r="AZ13" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="AU13" s="2"/>
-    </row>
-    <row r="14" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S14" s="18" t="s">
+      <c r="BB13" s="2"/>
+    </row>
+    <row r="14" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="AA14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V14" s="12" t="s">
+      <c r="AB14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="W14" s="10"/>
-      <c r="Z14" s="130"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="14" t="s">
+      <c r="AD14" s="10"/>
+      <c r="AG14" s="128"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AC14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="131"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
+      <c r="AJ14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="129"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="30" t="s">
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AR14" s="31" t="s">
+      <c r="AY14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AS14" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU14" s="7"/>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="S15" s="88"/>
-      <c r="T15" s="75" t="s">
+      <c r="AZ14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB14" s="7"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="14" t="s">
+      <c r="AB15" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="V15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W15" s="77"/>
-      <c r="Z15" s="130"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="14" t="s">
+      <c r="AC15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD15" s="77"/>
+      <c r="AG15" s="128"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AC15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="131"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="150" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ15" s="151"/>
-      <c r="AK15" s="151"/>
-      <c r="AL15" s="151"/>
-      <c r="AM15" s="152"/>
+      <c r="AJ15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="129"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="36" t="s">
+      <c r="AP15" s="152" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ15" s="153"/>
+      <c r="AR15" s="153"/>
+      <c r="AS15" s="153"/>
+      <c r="AT15" s="154"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AR15" s="37" t="s">
+      <c r="AY15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AS15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT15" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU15" s="6"/>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="S16" s="88"/>
-      <c r="T16" s="75" t="s">
+      <c r="AZ15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA15" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB15" s="6"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W16" s="8" t="s">
+      <c r="AB16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Z16" s="130"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="14" t="s">
+      <c r="AG16" s="128"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AC16" s="13" t="s">
+      <c r="AJ16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AD16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="131"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ16" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK16" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL16" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM16" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="AK16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="129"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="14" t="s">
+      <c r="AP16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ16" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS16" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT16" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AS16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU16" s="4"/>
-    </row>
-    <row r="17" spans="11:47" x14ac:dyDescent="0.2">
-      <c r="S17" s="89" t="s">
+      <c r="AZ16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB16" s="4"/>
+    </row>
+    <row r="17" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="Z17" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="79" t="s">
+      <c r="AA17" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="V17" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="W17" s="82"/>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="14" t="s">
+      <c r="AB17" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC17" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD17" s="82"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AC17" s="13" t="s">
+      <c r="AJ17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="131"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ17" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL17" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM17" s="6"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="129"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="14" t="s">
+      <c r="AP17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ17" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AS17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="4"/>
-    </row>
-    <row r="18" spans="11:47" x14ac:dyDescent="0.2">
-      <c r="S18" s="90" t="s">
+      <c r="AZ17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA17" s="13"/>
+      <c r="BB17" s="4"/>
+    </row>
+    <row r="18" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="Z18" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="T18" s="80" t="s">
+      <c r="AA18" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="U18" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="W18" s="84"/>
-      <c r="Z18" s="130"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="14" t="s">
+      <c r="AB18" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC18" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD18" s="84"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AC18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE18" s="8" t="s">
+      <c r="AJ18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL18" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AF18" s="131"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM18" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="AM18" s="129"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="13" t="s">
+        <v>0</v>
+      </c>
       <c r="AR18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AS18" s="13" t="s">
+      <c r="AZ18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AT18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU18" s="4"/>
-    </row>
-    <row r="19" spans="11:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S19" s="91" t="s">
+      <c r="BA18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB18" s="4"/>
+    </row>
+    <row r="19" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="81" t="s">
+      <c r="AA19" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="U19" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="V19" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="W19" s="85"/>
-      <c r="Z19" s="130"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="15" t="s">
+      <c r="AB19" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD19" s="85"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE19" s="5" t="s">
+      <c r="AJ19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AF19" s="131"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM19" s="4"/>
+      <c r="AM19" s="129"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="15" t="s">
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AS19" s="16" t="s">
+      <c r="AZ19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="5"/>
-    </row>
-    <row r="20" spans="11:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S20" s="76"/>
-      <c r="T20" s="75" t="s">
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="5"/>
+    </row>
+    <row r="20" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="U20" s="75" t="s">
+      <c r="AB20" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="V20" s="75"/>
-      <c r="W20" s="77"/>
-      <c r="Z20" s="130"/>
-      <c r="AA20" s="130"/>
-      <c r="AB20" s="130"/>
-      <c r="AC20" s="130"/>
-      <c r="AD20" s="130"/>
-      <c r="AE20" s="130"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM20" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="77"/>
+      <c r="AG20" s="128"/>
+      <c r="AH20" s="128"/>
+      <c r="AI20" s="128"/>
+      <c r="AJ20" s="128"/>
+      <c r="AK20" s="128"/>
+      <c r="AL20" s="128"/>
+      <c r="AM20" s="129"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT20" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="AU20" s="1"/>
-    </row>
-    <row r="21" spans="11:47" x14ac:dyDescent="0.2">
-      <c r="S21" s="76"/>
-      <c r="T21" s="75" t="s">
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+    </row>
+    <row r="21" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="U21" s="48" t="s">
+      <c r="AB21" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="V21" s="75"/>
-      <c r="W21" s="77"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="77"/>
+      <c r="AH21" s="17"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
-      <c r="AM21" s="67"/>
+      <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
+      <c r="AT21" s="67"/>
       <c r="AU21" s="1"/>
-    </row>
-    <row r="22" spans="11:47" x14ac:dyDescent="0.2">
-      <c r="S22" s="76"/>
-      <c r="T22" s="75" t="s">
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+    </row>
+    <row r="22" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="U22" s="48" t="s">
+      <c r="AB22" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="V22" s="75"/>
-      <c r="W22" s="77"/>
-      <c r="AM22" s="67"/>
-    </row>
-    <row r="23" spans="11:47" x14ac:dyDescent="0.2">
-      <c r="S23" s="76"/>
-      <c r="T23" s="75" t="s">
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="77"/>
+      <c r="AT22" s="67"/>
+    </row>
+    <row r="23" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="U23" s="48" t="s">
+      <c r="AB23" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="75"/>
-      <c r="W23" s="77"/>
-    </row>
-    <row r="24" spans="11:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S24" s="76"/>
-      <c r="T24" s="75" t="s">
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="77"/>
+    </row>
+    <row r="24" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="48" t="s">
+      <c r="AB24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="V24" s="75"/>
-      <c r="W24" s="77"/>
-    </row>
-    <row r="25" spans="11:47" x14ac:dyDescent="0.2">
-      <c r="S25" s="76"/>
-      <c r="T25" s="75" t="s">
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="77"/>
+    </row>
+    <row r="25" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="U25" s="48" t="s">
+      <c r="AB25" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="V25" s="75"/>
-      <c r="W25" s="77"/>
-      <c r="AA25" s="134" t="s">
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="77"/>
+      <c r="AH25" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
-    </row>
-    <row r="26" spans="11:47" x14ac:dyDescent="0.2">
-      <c r="S26" s="76"/>
-      <c r="T26" s="75" t="s">
+      <c r="AI25" s="137"/>
+      <c r="AJ25" s="137"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="138"/>
+    </row>
+    <row r="26" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="U26" s="48" t="s">
+      <c r="AB26" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="V26" s="75"/>
-      <c r="W26" s="77"/>
-      <c r="AA26" s="61" t="s">
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="77"/>
+      <c r="AH26" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="AB26" s="62" t="s">
+      <c r="AI26" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AC26" s="62" t="s">
+      <c r="AJ26" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="AD26" s="62" t="s">
+      <c r="AK26" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AE26" s="63" t="s">
+      <c r="AL26" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="11:47" x14ac:dyDescent="0.2">
-      <c r="S27" s="76"/>
-      <c r="T27" s="75" t="s">
+    <row r="27" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="U27" s="48" t="s">
+      <c r="AB27" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="V27" s="75"/>
-      <c r="W27" s="77"/>
-      <c r="AA27" s="64" t="s">
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="77"/>
+      <c r="AH27" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AB27" s="65" t="s">
+      <c r="AI27" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="AC27" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD27" s="65" t="s">
+      <c r="AJ27" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK27" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AE27" s="11"/>
-    </row>
-    <row r="28" spans="11:47" x14ac:dyDescent="0.2">
-      <c r="S28" s="76"/>
-      <c r="T28" s="75" t="s">
+      <c r="AL27" s="11"/>
+    </row>
+    <row r="28" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="U28" s="48" t="s">
+      <c r="AB28" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="V28" s="75"/>
-      <c r="W28" s="77"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="75" t="s">
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="77"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="AC28" s="14" t="s">
+      <c r="AJ28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AD28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE28" s="77"/>
-    </row>
-    <row r="29" spans="11:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S29" s="76"/>
-      <c r="T29" s="75" t="s">
+      <c r="AK28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL28" s="77"/>
+    </row>
+    <row r="29" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="U29" s="48" t="s">
+      <c r="AB29" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="V29" s="75"/>
-      <c r="W29" s="77"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="15" t="s">
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="77"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE29" s="5" t="s">
+      <c r="AJ29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL29" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="11:47" x14ac:dyDescent="0.2">
-      <c r="S30" s="76"/>
-      <c r="T30" s="75" t="s">
+    <row r="30" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="U30" s="48" t="s">
+      <c r="AB30" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="V30" s="75"/>
-      <c r="W30" s="77"/>
-    </row>
-    <row r="31" spans="11:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S31" s="88"/>
-      <c r="T31" s="14" t="s">
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="77"/>
+    </row>
+    <row r="31" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="U31" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V31" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="11:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="159" t="s">
+      <c r="AB31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD31" s="4"/>
+    </row>
+    <row r="32" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="161"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="14" t="s">
+      <c r="S32" s="162"/>
+      <c r="T32" s="162"/>
+      <c r="U32" s="162"/>
+      <c r="V32" s="163"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="U32" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V32" s="13"/>
-      <c r="W32" s="4"/>
-    </row>
-    <row r="33" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="K33" s="56" t="s">
+      <c r="AB32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="4"/>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="R33" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="57" t="s">
+      <c r="S33" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M33" s="57" t="s">
+      <c r="T33" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N33" s="57" t="s">
+      <c r="U33" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="58" t="s">
+      <c r="V33" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="S33" s="88"/>
-      <c r="T33" s="14" t="s">
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="U33" s="13" t="s">
+      <c r="AB33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V33" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W33" s="4"/>
-      <c r="AA33" s="147" t="s">
+      <c r="AC33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD33" s="4"/>
+      <c r="AH33" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="149"/>
-    </row>
-    <row r="34" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="K34" s="59" t="s">
+      <c r="AI33" s="150"/>
+      <c r="AJ33" s="150"/>
+      <c r="AK33" s="150"/>
+      <c r="AL33" s="151"/>
+    </row>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="R34" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="55" t="s">
+      <c r="S34" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="M34" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="N34" s="55" t="s">
+      <c r="T34" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="O34" s="60"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="14" t="s">
+      <c r="V34" s="60"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="U34" s="13" t="s">
+      <c r="AB34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V34" s="13"/>
-      <c r="W34" s="4"/>
-      <c r="AA34" s="38" t="s">
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="4"/>
+      <c r="AH34" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AB34" s="39" t="s">
+      <c r="AI34" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AC34" s="39" t="s">
+      <c r="AJ34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AD34" s="39" t="s">
+      <c r="AK34" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AE34" s="40" t="s">
+      <c r="AL34" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K35" s="124" t="s">
+    <row r="35" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="122" t="s">
+      <c r="S35" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="M35" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="123"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="15" t="s">
+      <c r="T35" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" s="123"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W35" s="5" t="s">
+      <c r="AB35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AA35" s="41" t="s">
+      <c r="AH35" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="AB35" s="42" t="s">
+      <c r="AI35" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AC35" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD35" s="42" t="s">
+      <c r="AJ35" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK35" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="AE35" s="2"/>
-    </row>
-    <row r="36" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="K36" s="125"/>
-      <c r="L36" s="107" t="s">
+      <c r="AL35" s="2"/>
+    </row>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="R36" s="125"/>
+      <c r="S36" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="M36" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="108" t="s">
+      <c r="T36" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="75" t="s">
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="AC36" s="14" t="s">
+      <c r="AJ36" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AD36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE36" s="77"/>
-    </row>
-    <row r="37" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K37" s="83"/>
-      <c r="L37" s="80" t="s">
+      <c r="AK36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL36" s="77"/>
+    </row>
+    <row r="37" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="83"/>
+      <c r="S37" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="M37" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="N37" s="65"/>
-      <c r="O37" s="84" t="s">
+      <c r="T37" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="65"/>
+      <c r="V37" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="15" t="s">
+      <c r="AH37" s="78"/>
+      <c r="AI37" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE37" s="5" t="s">
+      <c r="AJ37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="K38" s="76"/>
-      <c r="L38" s="75" t="s">
+    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="R38" s="76"/>
+      <c r="S38" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="T38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N38" s="75"/>
-      <c r="O38" s="77"/>
-    </row>
-    <row r="39" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K39" s="78"/>
-      <c r="L39" s="121" t="s">
+      <c r="U38" s="75"/>
+      <c r="V38" s="77"/>
+    </row>
+    <row r="39" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="78"/>
+      <c r="S39" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="M39" s="16" t="s">
+      <c r="T39" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N39" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O39" s="87"/>
-    </row>
-    <row r="45" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C46" s="162" t="s">
+      <c r="U39" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V39" s="87"/>
+    </row>
+    <row r="40" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="J41" s="139" t="s">
+        <v>115</v>
+      </c>
+      <c r="K41" s="140"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="141"/>
+    </row>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="J42" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="J43" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="J44" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="L44" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="111"/>
+    </row>
+    <row r="45" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="133" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="L45" s="134" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="135"/>
+    </row>
+    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B46" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="164"/>
-      <c r="K46" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="L46" s="138"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="139"/>
-      <c r="S46" s="143" t="s">
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="166"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="77"/>
+      <c r="R46" s="164" t="s">
+        <v>117</v>
+      </c>
+      <c r="S46" s="165"/>
+      <c r="T46" s="165"/>
+      <c r="U46" s="165"/>
+      <c r="V46" s="166"/>
+      <c r="Z46" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="T46" s="144"/>
-      <c r="U46" s="144"/>
-      <c r="V46" s="144"/>
-      <c r="W46" s="146"/>
-      <c r="AA46" s="165" t="s">
+      <c r="AA46" s="146"/>
+      <c r="AB46" s="146"/>
+      <c r="AC46" s="146"/>
+      <c r="AD46" s="148"/>
+      <c r="AH46" s="167" t="s">
         <v>83</v>
       </c>
-      <c r="AB46" s="166"/>
-      <c r="AC46" s="166"/>
-      <c r="AD46" s="166"/>
-      <c r="AE46" s="167"/>
-      <c r="AI46" s="134" t="s">
+      <c r="AI46" s="168"/>
+      <c r="AJ46" s="168"/>
+      <c r="AK46" s="168"/>
+      <c r="AL46" s="169"/>
+      <c r="AP46" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="AJ46" s="135"/>
-      <c r="AK46" s="135"/>
-      <c r="AL46" s="135"/>
-      <c r="AM46" s="136"/>
-    </row>
-    <row r="47" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C47" s="49" t="s">
+      <c r="AQ46" s="137"/>
+      <c r="AR46" s="137"/>
+      <c r="AS46" s="137"/>
+      <c r="AT46" s="138"/>
+    </row>
+    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B47" s="49" t="s">
         <v>15</v>
       </c>
+      <c r="C47" s="50" t="s">
+        <v>12</v>
+      </c>
       <c r="D47" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="76"/>
+      <c r="K47" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L47" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="77"/>
+      <c r="R47" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="S47" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="T47" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="U47" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="51" t="s">
+      <c r="V47" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="K47" s="43" t="s">
+      <c r="Z47" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="44" t="s">
+      <c r="AA47" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="44" t="s">
+      <c r="AB47" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N47" s="44" t="s">
+      <c r="AC47" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="45" t="s">
+      <c r="AD47" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="S47" s="26" t="s">
+      <c r="AH47" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="T47" s="27" t="s">
+      <c r="AI47" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="U47" s="27" t="s">
+      <c r="AJ47" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="V47" s="27" t="s">
+      <c r="AK47" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="W47" s="29" t="s">
+      <c r="AL47" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AA47" s="94" t="s">
+      <c r="AP47" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="AB47" s="95" t="s">
+      <c r="AQ47" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AC47" s="95" t="s">
+      <c r="AR47" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="AD47" s="95" t="s">
+      <c r="AS47" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AE47" s="96" t="s">
+      <c r="AT47" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AI47" s="61" t="s">
+    </row>
+    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B48" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="54"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="L48" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" s="14"/>
+      <c r="N48" s="77"/>
+      <c r="R48" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="T48" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="V48" s="54"/>
+      <c r="Z48" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA48" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC48" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD48" s="7"/>
+      <c r="AH48" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI48" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ48" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK48" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL48" s="99"/>
+      <c r="AP48" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ48" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR48" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS48" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT48" s="11"/>
+    </row>
+    <row r="49" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B49" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="123"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="13"/>
+      <c r="N49" s="77"/>
+      <c r="R49" s="132"/>
+      <c r="S49" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="T49" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="V49" s="103"/>
+      <c r="Z49" s="76"/>
+      <c r="AA49" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC49" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD49" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH49" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI49" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ49" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK49" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL49" s="103"/>
+      <c r="AP49" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ49" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR49" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS49" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT49" s="108"/>
+    </row>
+    <row r="50" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B50" s="76"/>
+      <c r="C50" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="77"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="77">
+        <v>100</v>
+      </c>
+      <c r="R50" s="76"/>
+      <c r="S50" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="T50" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U50" s="75"/>
+      <c r="V50" s="77"/>
+      <c r="Z50" s="76"/>
+      <c r="AA50" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB50" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC50" s="75"/>
+      <c r="AD50" s="77"/>
+      <c r="AH50" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI50" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ50" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK50" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL50" s="85"/>
+      <c r="AP50" s="88"/>
+      <c r="AQ50" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT50" s="77"/>
+    </row>
+    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B51" s="76"/>
+      <c r="C51" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="77"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="77"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T51" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V51" s="77"/>
+      <c r="Z51" s="76"/>
+      <c r="AA51" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC51" s="75"/>
+      <c r="AD51" s="77"/>
+      <c r="AH51" s="88"/>
+      <c r="AI51" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ51" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK51" s="75"/>
+      <c r="AL51" s="77"/>
+      <c r="AP51" s="88"/>
+      <c r="AQ51" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR51" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS51" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT51" s="77"/>
+    </row>
+    <row r="52" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B52" s="76"/>
+      <c r="C52" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="77"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" s="77"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U52" s="13"/>
+      <c r="V52" s="77"/>
+      <c r="Z52" s="76"/>
+      <c r="AA52" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB52" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC52" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD52" s="77"/>
+      <c r="AH52" s="88"/>
+      <c r="AI52" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK52" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL52" s="77"/>
+      <c r="AP52" s="88"/>
+      <c r="AQ52" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR52" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS52" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT52" s="77"/>
+    </row>
+    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B53" s="76"/>
+      <c r="C53" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="77"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" s="77"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V53" s="77"/>
+      <c r="Z53" s="76"/>
+      <c r="AA53" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB53" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC53" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD53" s="77"/>
+      <c r="AH53" s="76"/>
+      <c r="AI53" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ53" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK53" s="75"/>
+      <c r="AL53" s="77"/>
+      <c r="AP53" s="88"/>
+      <c r="AQ53" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR53" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS53" s="13"/>
+      <c r="AT53" s="77"/>
+    </row>
+    <row r="54" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="78"/>
+      <c r="C54" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" s="19"/>
+      <c r="K54" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="13"/>
+      <c r="N54" s="77"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T54" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U54" s="13"/>
+      <c r="V54" s="77"/>
+      <c r="Z54" s="76"/>
+      <c r="AA54" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB54" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC54" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD54" s="77"/>
+      <c r="AH54" s="76"/>
+      <c r="AI54" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ54" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK54" s="75"/>
+      <c r="AL54" s="77"/>
+      <c r="AP54" s="88"/>
+      <c r="AQ54" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR54" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS54" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT54" s="77"/>
+    </row>
+    <row r="55" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="19"/>
+      <c r="K55" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="77"/>
+      <c r="R55" s="78"/>
+      <c r="S55" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T55" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z55" s="126"/>
+      <c r="AA55" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB55" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC55" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD55" s="127">
+        <v>10</v>
+      </c>
+      <c r="AH55" s="76"/>
+      <c r="AI55" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ55" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL55" s="77"/>
+      <c r="AP55" s="88"/>
+      <c r="AQ55" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR55" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS55" s="13"/>
+      <c r="AT55" s="77"/>
+    </row>
+    <row r="56" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="19"/>
+      <c r="K56" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="13"/>
+      <c r="N56" s="77"/>
+      <c r="Z56" s="76"/>
+      <c r="AA56" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB56" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC56" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD56" s="77"/>
+      <c r="AH56" s="88"/>
+      <c r="AI56" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ56" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK56" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL56" s="77"/>
+      <c r="AP56" s="92"/>
+      <c r="AQ56" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR56" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS56" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT56" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="118"/>
+      <c r="K57" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="L57" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" s="120"/>
+      <c r="Z57" s="76"/>
+      <c r="AA57" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB57" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="77"/>
+      <c r="AH57" s="88"/>
+      <c r="AI57" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ57" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK57" s="13"/>
+      <c r="AL57" s="77"/>
+      <c r="AP57" s="93"/>
+    </row>
+    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="K58" s="131" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z58" s="76"/>
+      <c r="AA58" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC58" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD58" s="77"/>
+      <c r="AH58" s="88"/>
+      <c r="AI58" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ58" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK58" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL58" s="77"/>
+      <c r="AP58" s="93"/>
+    </row>
+    <row r="59" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="Z59" s="76"/>
+      <c r="AA59" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB59" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="77"/>
+      <c r="AH59" s="88"/>
+      <c r="AI59" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ59" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK59" s="13"/>
+      <c r="AL59" s="77"/>
+      <c r="AP59" s="93"/>
+    </row>
+    <row r="60" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z60" s="78"/>
+      <c r="AA60" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB60" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC60" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH60" s="92"/>
+      <c r="AI60" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ60" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK60" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL60" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="Z65" s="149" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA65" s="150"/>
+      <c r="AB65" s="150"/>
+      <c r="AC65" s="150"/>
+      <c r="AD65" s="151"/>
+    </row>
+    <row r="66" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R66" s="86"/>
+      <c r="S66" s="67"/>
+      <c r="T66" s="86"/>
+      <c r="U66" s="86"/>
+      <c r="V66" s="86"/>
+      <c r="Z66" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AJ47" s="62" t="s">
+      <c r="AA66" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AK47" s="62" t="s">
+      <c r="AB66" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AL47" s="62" t="s">
+      <c r="AC66" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AM47" s="63" t="s">
+      <c r="AD66" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C48" s="52" t="s">
+    <row r="67" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="Z67" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="53" t="s">
+      <c r="AA67" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB67" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC67" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="54"/>
-      <c r="K48" s="46" t="s">
+      <c r="AD67" s="2"/>
+    </row>
+    <row r="68" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="Z68" s="76"/>
+      <c r="AA68" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC68" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD68" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="18:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z69" s="78"/>
+      <c r="AA69" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB69" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC69" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD69" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="18:31" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R73" s="158" t="s">
+        <v>110</v>
+      </c>
+      <c r="S73" s="159"/>
+      <c r="T73" s="159"/>
+      <c r="U73" s="159"/>
+      <c r="V73" s="160"/>
+    </row>
+    <row r="74" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R74" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="S74" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="T74" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="U74" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="V74" s="114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R75" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="M48" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="N48" s="47" t="s">
+      <c r="S75" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="T75" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="U75" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="O48" s="9"/>
-      <c r="S48" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="T48" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="U48" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="V48" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="W48" s="7"/>
-      <c r="AA48" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB48" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC48" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD48" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE48" s="99"/>
-      <c r="AI48" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ48" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK48" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL48" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM48" s="11"/>
-    </row>
-    <row r="49" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C49" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="122" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="123"/>
-      <c r="K49" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="L49" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="M49" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="O49" s="111"/>
-      <c r="S49" s="76"/>
-      <c r="T49" s="75" t="s">
+      <c r="V75" s="117"/>
+    </row>
+    <row r="76" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R76" s="76"/>
+      <c r="S76" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="U49" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="V49" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W49" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA49" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB49" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC49" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD49" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE49" s="103"/>
-      <c r="AI49" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ49" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK49" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL49" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM49" s="108"/>
-    </row>
-    <row r="50" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C50" s="76"/>
-      <c r="D50" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="77"/>
-      <c r="K50" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="L50" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="M50" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="O50" s="103"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="U50" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="V50" s="75"/>
-      <c r="W50" s="77"/>
-      <c r="AA50" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB50" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC50" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD50" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE50" s="85"/>
-      <c r="AI50" s="88"/>
-      <c r="AJ50" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL50" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM50" s="77"/>
-    </row>
-    <row r="51" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C51" s="76"/>
-      <c r="D51" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="77"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="M51" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O51" s="77"/>
-      <c r="S51" s="76"/>
-      <c r="T51" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="U51" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="V51" s="75"/>
-      <c r="W51" s="77"/>
-      <c r="AA51" s="88"/>
-      <c r="AB51" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC51" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD51" s="75"/>
-      <c r="AE51" s="77"/>
-      <c r="AI51" s="88"/>
-      <c r="AJ51" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK51" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL51" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM51" s="77"/>
-    </row>
-    <row r="52" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C52" s="76"/>
-      <c r="D52" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="77"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M52" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="N52" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O52" s="77"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U52" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="V52" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="W52" s="77"/>
-      <c r="AA52" s="88"/>
-      <c r="AB52" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD52" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE52" s="77"/>
-      <c r="AI52" s="88"/>
-      <c r="AJ52" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK52" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL52" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM52" s="77"/>
-    </row>
-    <row r="53" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C53" s="76"/>
-      <c r="D53" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="77"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="M53" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="N53" s="14"/>
-      <c r="O53" s="77"/>
-      <c r="S53" s="76"/>
-      <c r="T53" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="U53" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="V53" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="W53" s="77"/>
-      <c r="AA53" s="76"/>
-      <c r="AB53" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC53" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD53" s="75"/>
-      <c r="AE53" s="77"/>
-      <c r="AI53" s="88"/>
-      <c r="AJ53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK53" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL53" s="13"/>
-      <c r="AM53" s="77"/>
-    </row>
-    <row r="54" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="78"/>
-      <c r="D54" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="K54" s="88"/>
-      <c r="L54" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="48" t="s">
+      <c r="T76" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N54" s="13"/>
-      <c r="O54" s="77"/>
-      <c r="S54" s="76"/>
-      <c r="T54" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="U54" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="V54" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="W54" s="77"/>
-      <c r="AA54" s="76"/>
-      <c r="AB54" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD54" s="75"/>
-      <c r="AE54" s="77"/>
-      <c r="AI54" s="88"/>
-      <c r="AJ54" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK54" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL54" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM54" s="77"/>
-    </row>
-    <row r="55" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="K55" s="88"/>
-      <c r="L55" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="M55" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N55" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O55" s="77">
-        <v>100</v>
-      </c>
-      <c r="S55" s="128"/>
-      <c r="T55" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="U55" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="V55" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="W55" s="129">
-        <v>10</v>
-      </c>
-      <c r="AA55" s="76"/>
-      <c r="AB55" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC55" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD55" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE55" s="77"/>
-      <c r="AI55" s="88"/>
-      <c r="AJ55" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK55" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL55" s="13"/>
-      <c r="AM55" s="77"/>
-    </row>
-    <row r="56" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K56" s="88"/>
-      <c r="L56" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M56" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N56" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O56" s="77"/>
-      <c r="S56" s="126"/>
-      <c r="T56" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="U56" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="V56" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W56" s="127"/>
-      <c r="AA56" s="88"/>
-      <c r="AB56" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC56" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD56" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE56" s="77"/>
-      <c r="AI56" s="92"/>
-      <c r="AJ56" s="15" t="s">
+      <c r="U76" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V76" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE76" s="67"/>
+    </row>
+    <row r="77" spans="18:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R77" s="78"/>
+      <c r="S77" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AK56" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL56" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM56" s="5" t="s">
+      <c r="T77" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U77" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V77" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="K57" s="88"/>
-      <c r="L57" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M57" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N57" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O57" s="77"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V57" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W57" s="77"/>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC57" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="77"/>
-      <c r="AI57" s="93"/>
-    </row>
-    <row r="58" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="K58" s="19"/>
-      <c r="L58" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N58" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O58" s="77"/>
-      <c r="S58" s="76"/>
-      <c r="T58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="U58" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V58" s="13"/>
-      <c r="W58" s="77"/>
-      <c r="AA58" s="88"/>
-      <c r="AB58" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD58" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE58" s="77"/>
-      <c r="AI58" s="93"/>
-    </row>
-    <row r="59" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="K59" s="19"/>
-      <c r="L59" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M59" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N59" s="13"/>
-      <c r="O59" s="77"/>
-      <c r="S59" s="76"/>
-      <c r="T59" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V59" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W59" s="77"/>
-      <c r="AA59" s="88"/>
-      <c r="AB59" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC59" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="77"/>
-      <c r="AI59" s="93"/>
-    </row>
-    <row r="60" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K60" s="19"/>
-      <c r="L60" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O60" s="77"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="U60" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V60" s="13"/>
-      <c r="W60" s="77"/>
-      <c r="AA60" s="92"/>
-      <c r="AB60" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC60" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD60" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE60" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K61" s="19"/>
-      <c r="L61" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M61" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" s="13"/>
-      <c r="O61" s="77"/>
-      <c r="S61" s="78"/>
-      <c r="T61" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="U61" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V61" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W61" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K62" s="118"/>
-      <c r="L62" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="M62" s="119" t="s">
-        <v>20</v>
-      </c>
-      <c r="N62" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="O62" s="120"/>
-    </row>
-    <row r="63" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="L63" s="133" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="S65" s="147" t="s">
-        <v>109</v>
-      </c>
-      <c r="T65" s="148"/>
-      <c r="U65" s="148"/>
-      <c r="V65" s="148"/>
-      <c r="W65" s="149"/>
-    </row>
-    <row r="66" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="K66" s="86"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="86"/>
-      <c r="N66" s="86"/>
-      <c r="O66" s="86"/>
-      <c r="S66" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="T66" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="U66" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="V66" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="W66" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="S67" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="T67" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="U67" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="V67" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="W67" s="2"/>
-    </row>
-    <row r="68" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="S68" s="76"/>
-      <c r="T68" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="U68" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="V68" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W68" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="11:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S69" s="78"/>
-      <c r="T69" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="U69" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V69" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W69" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="11:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="S73" s="156" t="s">
-        <v>110</v>
-      </c>
-      <c r="T73" s="157"/>
-      <c r="U73" s="157"/>
-      <c r="V73" s="157"/>
-      <c r="W73" s="158"/>
-    </row>
-    <row r="74" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="S74" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="T74" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="U74" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="V74" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="W74" s="114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="S75" s="115" t="s">
-        <v>16</v>
-      </c>
-      <c r="T75" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="U75" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="V75" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="W75" s="117"/>
-    </row>
-    <row r="76" spans="11:24" x14ac:dyDescent="0.2">
-      <c r="S76" s="76"/>
-      <c r="T76" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="U76" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="V76" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="W76" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="X76" s="67"/>
-    </row>
-    <row r="77" spans="11:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S77" s="78"/>
-      <c r="T77" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="U77" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V77" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W77" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="S73:W73"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="AA33:AE33"/>
-    <mergeCell ref="S46:W46"/>
-    <mergeCell ref="AA46:AE46"/>
-    <mergeCell ref="S65:W65"/>
-    <mergeCell ref="AI46:AM46"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="AA6:AE6"/>
-    <mergeCell ref="AI6:AM6"/>
-    <mergeCell ref="AQ11:AU11"/>
-    <mergeCell ref="AI15:AM15"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="AA25:AE25"/>
+  <mergeCells count="16">
+    <mergeCell ref="R73:V73"/>
+    <mergeCell ref="R32:V32"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="AH33:AL33"/>
+    <mergeCell ref="Z46:AD46"/>
+    <mergeCell ref="AH46:AL46"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="AP46:AT46"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AP6:AT6"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="AP15:AT15"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AH25:AL25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/recursos/DataBase/Base de Datos 035 v1.xlsx
+++ b/recursos/DataBase/Base de Datos 035 v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oavalos/Documents/Personal/Proyecto 035/Codigo/recursos/DataBase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omaravalos/Documents/Proyecto 035/code035/recursos/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A837EC-07F2-E24F-A3A9-DDF57DE28EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6859306-B319-C548-978E-DC8FD7E0D718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14240" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura v1" sheetId="7" r:id="rId1"/>
@@ -21,13 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -377,9 +370,6 @@
     <t>seccion</t>
   </si>
   <si>
-    <t>Es el ejercicion de un centro de tratabajo aplicando un cuestionario</t>
-  </si>
-  <si>
     <t>Tabla: tbl_actividad</t>
   </si>
   <si>
@@ -396,13 +386,16 @@
   </si>
   <si>
     <t>id_producto</t>
+  </si>
+  <si>
+    <t>Es el ejercicio de un centro de tratabajo aplicando un cuestionario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -737,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -950,6 +949,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -977,27 +1030,9 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1016,41 +1051,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2198,11 +2202,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B9ABE7-9E51-B84C-A716-4D1C8217E878}">
   <dimension ref="A1:BB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S58" sqref="S58"/>
+    <sheetView tabSelected="1" topLeftCell="S3" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
@@ -2242,7 +2246,7 @@
     <col min="54" max="54" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:54" ht="37">
       <c r="A1" s="66" t="s">
         <v>9</v>
       </c>
@@ -2302,34 +2306,38 @@
       <c r="BA1" s="130"/>
       <c r="BB1" s="130"/>
     </row>
-    <row r="5" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54">
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:54" ht="17" thickBot="1">
       <c r="AG5" s="128"/>
-      <c r="AH5" s="128"/>
+      <c r="AH5" s="171"/>
       <c r="AI5" s="128"/>
       <c r="AJ5" s="128"/>
       <c r="AK5" s="128"/>
       <c r="AL5" s="128"/>
       <c r="AM5" s="128"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AP5" s="171"/>
+    </row>
+    <row r="6" spans="1:54">
       <c r="AG6" s="128"/>
-      <c r="AH6" s="142" t="s">
+      <c r="AH6" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="AI6" s="143"/>
-      <c r="AJ6" s="143"/>
-      <c r="AK6" s="143"/>
-      <c r="AL6" s="144"/>
+      <c r="AI6" s="161"/>
+      <c r="AJ6" s="161"/>
+      <c r="AK6" s="161"/>
+      <c r="AL6" s="162"/>
       <c r="AM6" s="129"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
-      <c r="AP6" s="145" t="s">
+      <c r="AP6" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="AQ6" s="146"/>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="147"/>
-      <c r="AT6" s="148"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="163"/>
+      <c r="AT6" s="150"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
@@ -2339,7 +2347,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54">
       <c r="AG7" s="128"/>
       <c r="AH7" s="72" t="s">
         <v>15</v>
@@ -2383,7 +2391,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54">
       <c r="AG8" s="128"/>
       <c r="AH8" s="69" t="s">
         <v>16</v>
@@ -2423,7 +2431,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54">
       <c r="AG9" s="128"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="14" t="s">
@@ -2463,7 +2471,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="17" thickBot="1">
       <c r="AG10" s="128"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="14" t="s">
@@ -2495,13 +2503,14 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
+      <c r="AX10" s="170"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="17" thickBot="1">
+      <c r="Z11" s="171"/>
       <c r="AG11" s="128"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="14" t="s">
@@ -2525,22 +2534,22 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
-      <c r="AX11" s="149" t="s">
+      <c r="AX11" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="AY11" s="150"/>
-      <c r="AZ11" s="150"/>
-      <c r="BA11" s="150"/>
-      <c r="BB11" s="151"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="Z12" s="155" t="s">
+      <c r="AY11" s="146"/>
+      <c r="AZ11" s="146"/>
+      <c r="BA11" s="146"/>
+      <c r="BB11" s="147"/>
+    </row>
+    <row r="12" spans="1:54">
+      <c r="Z12" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="156"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="157"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="168"/>
+      <c r="AD12" s="169"/>
       <c r="AG12" s="128"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="14" t="s">
@@ -2582,7 +2591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54">
       <c r="Z13" s="21" t="s">
         <v>15</v>
       </c>
@@ -2637,7 +2646,7 @@
       </c>
       <c r="BB13" s="2"/>
     </row>
-    <row r="14" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="17" thickBot="1">
       <c r="Z14" s="18" t="s">
         <v>16</v>
       </c>
@@ -2666,7 +2675,7 @@
       <c r="AM14" s="129"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
-      <c r="AP14" s="17"/>
+      <c r="AP14" s="172"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
@@ -2688,7 +2697,7 @@
       </c>
       <c r="BB14" s="7"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54">
       <c r="Z15" s="88"/>
       <c r="AA15" s="75" t="s">
         <v>0</v>
@@ -2713,13 +2722,13 @@
       <c r="AM15" s="129"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
-      <c r="AP15" s="152" t="s">
+      <c r="AP15" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="AQ15" s="153"/>
-      <c r="AR15" s="153"/>
-      <c r="AS15" s="153"/>
-      <c r="AT15" s="154"/>
+      <c r="AQ15" s="165"/>
+      <c r="AR15" s="165"/>
+      <c r="AS15" s="165"/>
+      <c r="AT15" s="166"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
@@ -2737,7 +2746,7 @@
       </c>
       <c r="BB15" s="6"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54">
       <c r="Z16" s="88"/>
       <c r="AA16" s="75" t="s">
         <v>45</v>
@@ -2796,7 +2805,7 @@
       </c>
       <c r="BB16" s="4"/>
     </row>
-    <row r="17" spans="18:54" x14ac:dyDescent="0.2">
+    <row r="17" spans="18:54">
       <c r="Z17" s="89" t="s">
         <v>33</v>
       </c>
@@ -2849,7 +2858,7 @@
       <c r="BA17" s="13"/>
       <c r="BB17" s="4"/>
     </row>
-    <row r="18" spans="18:54" x14ac:dyDescent="0.2">
+    <row r="18" spans="18:54">
       <c r="Z18" s="90" t="s">
         <v>33</v>
       </c>
@@ -2908,7 +2917,7 @@
       </c>
       <c r="BB18" s="4"/>
     </row>
-    <row r="19" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="18:54" ht="17" thickBot="1">
       <c r="Z19" s="91" t="s">
         <v>33</v>
       </c>
@@ -2963,7 +2972,7 @@
       <c r="BA19" s="16"/>
       <c r="BB19" s="5"/>
     </row>
-    <row r="20" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="18:54" ht="17" thickBot="1">
       <c r="Z20" s="76"/>
       <c r="AA20" s="75" t="s">
         <v>96</v>
@@ -3004,7 +3013,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="18:54" x14ac:dyDescent="0.2">
+    <row r="21" spans="18:54">
       <c r="Z21" s="76"/>
       <c r="AA21" s="75" t="s">
         <v>97</v>
@@ -3036,7 +3045,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="18:54" x14ac:dyDescent="0.2">
+    <row r="22" spans="18:54">
       <c r="Z22" s="76"/>
       <c r="AA22" s="75" t="s">
         <v>98</v>
@@ -3048,7 +3057,7 @@
       <c r="AD22" s="77"/>
       <c r="AT22" s="67"/>
     </row>
-    <row r="23" spans="18:54" x14ac:dyDescent="0.2">
+    <row r="23" spans="18:54">
       <c r="Z23" s="76"/>
       <c r="AA23" s="75" t="s">
         <v>99</v>
@@ -3059,7 +3068,7 @@
       <c r="AC23" s="75"/>
       <c r="AD23" s="77"/>
     </row>
-    <row r="24" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="18:54" ht="17" thickBot="1">
       <c r="Z24" s="76"/>
       <c r="AA24" s="75" t="s">
         <v>100</v>
@@ -3069,8 +3078,9 @@
       </c>
       <c r="AC24" s="75"/>
       <c r="AD24" s="77"/>
-    </row>
-    <row r="25" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="AH24" s="171"/>
+    </row>
+    <row r="25" spans="18:54">
       <c r="Z25" s="76"/>
       <c r="AA25" s="75" t="s">
         <v>101</v>
@@ -3080,15 +3090,15 @@
       </c>
       <c r="AC25" s="75"/>
       <c r="AD25" s="77"/>
-      <c r="AH25" s="136" t="s">
+      <c r="AH25" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="AI25" s="137"/>
-      <c r="AJ25" s="137"/>
-      <c r="AK25" s="137"/>
-      <c r="AL25" s="138"/>
-    </row>
-    <row r="26" spans="18:54" x14ac:dyDescent="0.2">
+      <c r="AI25" s="155"/>
+      <c r="AJ25" s="155"/>
+      <c r="AK25" s="155"/>
+      <c r="AL25" s="156"/>
+    </row>
+    <row r="26" spans="18:54">
       <c r="Z26" s="76"/>
       <c r="AA26" s="75" t="s">
         <v>102</v>
@@ -3114,7 +3124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="18:54" x14ac:dyDescent="0.2">
+    <row r="27" spans="18:54">
       <c r="Z27" s="76"/>
       <c r="AA27" s="75" t="s">
         <v>103</v>
@@ -3138,7 +3148,7 @@
       </c>
       <c r="AL27" s="11"/>
     </row>
-    <row r="28" spans="18:54" x14ac:dyDescent="0.2">
+    <row r="28" spans="18:54">
       <c r="Z28" s="76"/>
       <c r="AA28" s="75" t="s">
         <v>104</v>
@@ -3160,7 +3170,7 @@
       </c>
       <c r="AL28" s="77"/>
     </row>
-    <row r="29" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="18:54" ht="17" thickBot="1">
       <c r="Z29" s="76"/>
       <c r="AA29" s="75" t="s">
         <v>105</v>
@@ -3184,7 +3194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="18:54" x14ac:dyDescent="0.2">
+    <row r="30" spans="18:54">
       <c r="Z30" s="76"/>
       <c r="AA30" s="75" t="s">
         <v>106</v>
@@ -3195,7 +3205,8 @@
       <c r="AC30" s="75"/>
       <c r="AD30" s="77"/>
     </row>
-    <row r="31" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="18:54" ht="17" thickBot="1">
+      <c r="R31" s="171"/>
       <c r="Z31" s="88"/>
       <c r="AA31" s="14" t="s">
         <v>4</v>
@@ -3208,14 +3219,14 @@
       </c>
       <c r="AD31" s="4"/>
     </row>
-    <row r="32" spans="18:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R32" s="161" t="s">
+    <row r="32" spans="18:54" ht="17" thickBot="1">
+      <c r="R32" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="S32" s="162"/>
-      <c r="T32" s="162"/>
-      <c r="U32" s="162"/>
-      <c r="V32" s="163"/>
+      <c r="S32" s="140"/>
+      <c r="T32" s="140"/>
+      <c r="U32" s="140"/>
+      <c r="V32" s="141"/>
       <c r="Z32" s="88"/>
       <c r="AA32" s="14" t="s">
         <v>7</v>
@@ -3225,8 +3236,9 @@
       </c>
       <c r="AC32" s="13"/>
       <c r="AD32" s="4"/>
-    </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AH32" s="171"/>
+    </row>
+    <row r="33" spans="2:46">
       <c r="R33" s="56" t="s">
         <v>15</v>
       </c>
@@ -3253,15 +3265,15 @@
         <v>27</v>
       </c>
       <c r="AD33" s="4"/>
-      <c r="AH33" s="149" t="s">
+      <c r="AH33" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="AI33" s="150"/>
-      <c r="AJ33" s="150"/>
-      <c r="AK33" s="150"/>
-      <c r="AL33" s="151"/>
-    </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AI33" s="146"/>
+      <c r="AJ33" s="146"/>
+      <c r="AK33" s="146"/>
+      <c r="AL33" s="147"/>
+    </row>
+    <row r="34" spans="2:46">
       <c r="R34" s="59" t="s">
         <v>16</v>
       </c>
@@ -3300,7 +3312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:46" ht="17" thickBot="1">
       <c r="R35" s="124" t="s">
         <v>33</v>
       </c>
@@ -3341,7 +3353,7 @@
       </c>
       <c r="AL35" s="2"/>
     </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:46">
       <c r="R36" s="125"/>
       <c r="S36" s="107" t="s">
         <v>59</v>
@@ -3367,7 +3379,7 @@
       </c>
       <c r="AL36" s="77"/>
     </row>
-    <row r="37" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:46" ht="17" thickBot="1">
       <c r="R37" s="83"/>
       <c r="S37" s="80" t="s">
         <v>71</v>
@@ -3393,7 +3405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:46">
       <c r="R38" s="76"/>
       <c r="S38" s="75" t="s">
         <v>77</v>
@@ -3404,7 +3416,7 @@
       <c r="U38" s="75"/>
       <c r="V38" s="77"/>
     </row>
-    <row r="39" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:46" ht="17" thickBot="1">
       <c r="R39" s="78"/>
       <c r="S39" s="121" t="s">
         <v>5</v>
@@ -3417,17 +3429,19 @@
       </c>
       <c r="V39" s="87"/>
     </row>
-    <row r="40" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="J41" s="139" t="s">
-        <v>115</v>
-      </c>
-      <c r="K41" s="140"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="141"/>
-    </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:46" ht="17" thickBot="1">
+      <c r="J40" s="171"/>
+    </row>
+    <row r="41" spans="2:46">
+      <c r="J41" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="K41" s="158"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="158"/>
+      <c r="N41" s="159"/>
+    </row>
+    <row r="42" spans="2:46">
       <c r="J42" s="43" t="s">
         <v>15</v>
       </c>
@@ -3444,7 +3458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:46">
       <c r="J43" s="46" t="s">
         <v>16</v>
       </c>
@@ -3459,7 +3473,7 @@
       </c>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:46">
       <c r="J44" s="110" t="s">
         <v>33</v>
       </c>
@@ -3474,12 +3488,13 @@
       </c>
       <c r="N44" s="111"/>
     </row>
-    <row r="45" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:46" ht="17" thickBot="1">
+      <c r="B45" s="171"/>
       <c r="J45" s="133" t="s">
         <v>33</v>
       </c>
       <c r="K45" s="134" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L45" s="134" t="s">
         <v>20</v>
@@ -3488,15 +3503,19 @@
         <v>27</v>
       </c>
       <c r="N45" s="135"/>
-    </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B46" s="164" t="s">
+      <c r="R45" s="171"/>
+      <c r="Z45" s="171"/>
+      <c r="AH45" s="171"/>
+      <c r="AP45" s="171"/>
+    </row>
+    <row r="46" spans="2:46">
+      <c r="B46" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
-      <c r="E46" s="165"/>
-      <c r="F46" s="166"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="144"/>
       <c r="J46" s="76"/>
       <c r="K46" s="75" t="s">
         <v>65</v>
@@ -3508,36 +3527,36 @@
         <v>27</v>
       </c>
       <c r="N46" s="77"/>
-      <c r="R46" s="164" t="s">
-        <v>117</v>
-      </c>
-      <c r="S46" s="165"/>
-      <c r="T46" s="165"/>
-      <c r="U46" s="165"/>
-      <c r="V46" s="166"/>
-      <c r="Z46" s="145" t="s">
+      <c r="R46" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="S46" s="143"/>
+      <c r="T46" s="143"/>
+      <c r="U46" s="143"/>
+      <c r="V46" s="144"/>
+      <c r="Z46" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="AA46" s="146"/>
-      <c r="AB46" s="146"/>
-      <c r="AC46" s="146"/>
-      <c r="AD46" s="148"/>
-      <c r="AH46" s="167" t="s">
+      <c r="AA46" s="149"/>
+      <c r="AB46" s="149"/>
+      <c r="AC46" s="149"/>
+      <c r="AD46" s="150"/>
+      <c r="AH46" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="AI46" s="168"/>
-      <c r="AJ46" s="168"/>
-      <c r="AK46" s="168"/>
-      <c r="AL46" s="169"/>
-      <c r="AP46" s="136" t="s">
+      <c r="AI46" s="152"/>
+      <c r="AJ46" s="152"/>
+      <c r="AK46" s="152"/>
+      <c r="AL46" s="153"/>
+      <c r="AP46" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="AQ46" s="137"/>
-      <c r="AR46" s="137"/>
-      <c r="AS46" s="137"/>
-      <c r="AT46" s="138"/>
-    </row>
-    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AQ46" s="155"/>
+      <c r="AR46" s="155"/>
+      <c r="AS46" s="155"/>
+      <c r="AT46" s="156"/>
+    </row>
+    <row r="47" spans="2:46">
       <c r="B47" s="49" t="s">
         <v>15</v>
       </c>
@@ -3625,7 +3644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:46">
       <c r="B48" s="52" t="s">
         <v>16</v>
       </c>
@@ -3652,7 +3671,7 @@
         <v>16</v>
       </c>
       <c r="S48" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T48" s="53" t="s">
         <v>20</v>
@@ -3701,7 +3720,7 @@
       </c>
       <c r="AT48" s="11"/>
     </row>
-    <row r="49" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:46">
       <c r="B49" s="124" t="s">
         <v>33</v>
       </c>
@@ -3775,7 +3794,7 @@
       </c>
       <c r="AT49" s="108"/>
     </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:46">
       <c r="B50" s="76"/>
       <c r="C50" s="75" t="s">
         <v>0</v>
@@ -3802,7 +3821,7 @@
       </c>
       <c r="R50" s="76"/>
       <c r="S50" s="75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T50" s="13" t="s">
         <v>37</v>
@@ -3822,7 +3841,7 @@
         <v>33</v>
       </c>
       <c r="AI50" s="81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ50" s="104" t="s">
         <v>20</v>
@@ -3843,7 +3862,7 @@
       </c>
       <c r="AT50" s="77"/>
     </row>
-    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:46">
       <c r="B51" s="76"/>
       <c r="C51" s="75" t="s">
         <v>18</v>
@@ -3907,7 +3926,7 @@
       </c>
       <c r="AT51" s="77"/>
     </row>
-    <row r="52" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:46">
       <c r="B52" s="76"/>
       <c r="C52" s="75" t="s">
         <v>19</v>
@@ -3973,7 +3992,7 @@
       </c>
       <c r="AT52" s="77"/>
     </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:46">
       <c r="B53" s="76"/>
       <c r="C53" s="14" t="s">
         <v>5</v>
@@ -4037,7 +4056,7 @@
       <c r="AS53" s="13"/>
       <c r="AT53" s="77"/>
     </row>
-    <row r="54" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:46" ht="17" thickBot="1">
       <c r="B54" s="78"/>
       <c r="C54" s="15" t="s">
         <v>63</v>
@@ -4101,7 +4120,7 @@
       </c>
       <c r="AT54" s="77"/>
     </row>
-    <row r="55" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:46" ht="17" thickBot="1">
       <c r="J55" s="19"/>
       <c r="K55" s="14" t="s">
         <v>5</v>
@@ -4160,7 +4179,7 @@
       <c r="AS55" s="13"/>
       <c r="AT55" s="77"/>
     </row>
-    <row r="56" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:46" ht="17" thickBot="1">
       <c r="J56" s="19"/>
       <c r="K56" s="14" t="s">
         <v>6</v>
@@ -4206,7 +4225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:46" ht="17" thickBot="1">
       <c r="J57" s="118"/>
       <c r="K57" s="119" t="s">
         <v>66</v>
@@ -4238,9 +4257,9 @@
       <c r="AL57" s="77"/>
       <c r="AP57" s="93"/>
     </row>
-    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:46">
       <c r="K58" s="131" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Z58" s="76"/>
       <c r="AA58" s="14" t="s">
@@ -4266,7 +4285,7 @@
       <c r="AL58" s="77"/>
       <c r="AP58" s="93"/>
     </row>
-    <row r="59" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:46">
       <c r="Z59" s="76"/>
       <c r="AA59" s="14" t="s">
         <v>6</v>
@@ -4287,7 +4306,7 @@
       <c r="AL59" s="77"/>
       <c r="AP59" s="93"/>
     </row>
-    <row r="60" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:46" ht="17" thickBot="1">
       <c r="Z60" s="78"/>
       <c r="AA60" s="15" t="s">
         <v>3</v>
@@ -4315,17 +4334,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="2:46" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="Z65" s="149" t="s">
+    <row r="64" spans="2:46" ht="17" thickBot="1">
+      <c r="Z64" s="171"/>
+    </row>
+    <row r="65" spans="18:31">
+      <c r="Z65" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="AA65" s="150"/>
-      <c r="AB65" s="150"/>
-      <c r="AC65" s="150"/>
-      <c r="AD65" s="151"/>
-    </row>
-    <row r="66" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="AA65" s="146"/>
+      <c r="AB65" s="146"/>
+      <c r="AC65" s="146"/>
+      <c r="AD65" s="147"/>
+    </row>
+    <row r="66" spans="18:31">
       <c r="R66" s="86"/>
       <c r="S66" s="67"/>
       <c r="T66" s="86"/>
@@ -4347,7 +4368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="18:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="18:31">
       <c r="Z67" s="41" t="s">
         <v>16</v>
       </c>
@@ -4362,7 +4383,7 @@
       </c>
       <c r="AD67" s="2"/>
     </row>
-    <row r="68" spans="18:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="18:31">
       <c r="Z68" s="76"/>
       <c r="AA68" s="75" t="s">
         <v>0</v>
@@ -4377,7 +4398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="18:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="18:31" ht="17" thickBot="1">
       <c r="Z69" s="78"/>
       <c r="AA69" s="15" t="s">
         <v>3</v>
@@ -4392,17 +4413,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="18:31" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="R73" s="158" t="s">
+    <row r="72" spans="18:31" ht="17" thickBot="1">
+      <c r="R72" s="171"/>
+    </row>
+    <row r="73" spans="18:31">
+      <c r="R73" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="S73" s="159"/>
-      <c r="T73" s="159"/>
-      <c r="U73" s="159"/>
-      <c r="V73" s="160"/>
-    </row>
-    <row r="74" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="S73" s="137"/>
+      <c r="T73" s="137"/>
+      <c r="U73" s="137"/>
+      <c r="V73" s="138"/>
+    </row>
+    <row r="74" spans="18:31">
       <c r="R74" s="112" t="s">
         <v>15</v>
       </c>
@@ -4419,7 +4442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="18:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="18:31">
       <c r="R75" s="115" t="s">
         <v>16</v>
       </c>
@@ -4434,7 +4457,7 @@
       </c>
       <c r="V75" s="117"/>
     </row>
-    <row r="76" spans="18:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="18:31">
       <c r="R76" s="76"/>
       <c r="S76" s="75" t="s">
         <v>0</v>
@@ -4450,7 +4473,7 @@
       </c>
       <c r="AE76" s="67"/>
     </row>
-    <row r="77" spans="18:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="18:31" ht="17" thickBot="1">
       <c r="R77" s="78"/>
       <c r="S77" s="15" t="s">
         <v>3</v>
@@ -4467,6 +4490,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AP46:AT46"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AP6:AT6"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="AP15:AT15"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AH25:AL25"/>
     <mergeCell ref="R73:V73"/>
     <mergeCell ref="R32:V32"/>
     <mergeCell ref="B46:F46"/>
@@ -4475,14 +4506,6 @@
     <mergeCell ref="AH46:AL46"/>
     <mergeCell ref="Z65:AD65"/>
     <mergeCell ref="R46:V46"/>
-    <mergeCell ref="AP46:AT46"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AP6:AT6"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="AP15:AT15"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AH25:AL25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4495,7 +4518,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/recursos/DataBase/Base de Datos 035 v1.xlsx
+++ b/recursos/DataBase/Base de Datos 035 v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omaravalos/Documents/Proyecto 035/code035/recursos/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661777CD-6B61-C841-A709-BF1E73280FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341CBB68-6248-3147-8462-CD1F5F84D300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura v1" sheetId="7" r:id="rId1"/>
@@ -985,99 +985,6 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,15 +1007,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1126,15 +1024,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1144,15 +1033,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1170,6 +1050,126 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2333,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I18" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="Q23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2462,23 +2462,23 @@
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="AJ6" s="91"/>
-      <c r="AK6" s="127" t="s">
+      <c r="AK6" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="AL6" s="128"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="128"/>
-      <c r="AO6" s="129"/>
+      <c r="AL6" s="202"/>
+      <c r="AM6" s="202"/>
+      <c r="AN6" s="202"/>
+      <c r="AO6" s="203"/>
       <c r="AP6" s="105"/>
       <c r="AQ6" s="90"/>
       <c r="AR6" s="90"/>
-      <c r="AS6" s="130" t="s">
+      <c r="AS6" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="AT6" s="131"/>
-      <c r="AU6" s="131"/>
-      <c r="AV6" s="132"/>
-      <c r="AW6" s="133"/>
+      <c r="AT6" s="184"/>
+      <c r="AU6" s="184"/>
+      <c r="AV6" s="204"/>
+      <c r="AW6" s="185"/>
       <c r="AX6" s="90"/>
       <c r="AY6" s="90"/>
       <c r="AZ6" s="90"/>
@@ -2644,7 +2644,7 @@
       <c r="AX10" s="90"/>
       <c r="AY10" s="90"/>
       <c r="AZ10" s="90"/>
-      <c r="BA10" s="159"/>
+      <c r="BA10" s="128"/>
       <c r="BB10" s="90"/>
       <c r="BC10" s="90"/>
       <c r="BD10" s="90"/>
@@ -2675,22 +2675,22 @@
       <c r="AX11" s="90"/>
       <c r="AY11" s="90"/>
       <c r="AZ11" s="90"/>
-      <c r="BA11" s="134" t="s">
+      <c r="BA11" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="BB11" s="135"/>
-      <c r="BC11" s="135"/>
-      <c r="BD11" s="135"/>
-      <c r="BE11" s="136"/>
+      <c r="BB11" s="175"/>
+      <c r="BC11" s="175"/>
+      <c r="BD11" s="175"/>
+      <c r="BE11" s="176"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="AC12" s="137" t="s">
+      <c r="AC12" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="138"/>
-      <c r="AE12" s="138"/>
-      <c r="AF12" s="138"/>
-      <c r="AG12" s="139"/>
+      <c r="AD12" s="206"/>
+      <c r="AE12" s="206"/>
+      <c r="AF12" s="206"/>
+      <c r="AG12" s="207"/>
       <c r="AJ12" s="91"/>
       <c r="AK12" s="52"/>
       <c r="AL12" s="8" t="s">
@@ -2816,7 +2816,7 @@
       <c r="AP14" s="105"/>
       <c r="AQ14" s="90"/>
       <c r="AR14" s="90"/>
-      <c r="AS14" s="158"/>
+      <c r="AS14" s="127"/>
       <c r="AT14" s="90"/>
       <c r="AU14" s="90"/>
       <c r="AV14" s="90"/>
@@ -2863,13 +2863,13 @@
       <c r="AP15" s="105"/>
       <c r="AQ15" s="90"/>
       <c r="AR15" s="90"/>
-      <c r="AS15" s="140" t="s">
+      <c r="AS15" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="AT15" s="141"/>
-      <c r="AU15" s="141"/>
-      <c r="AV15" s="141"/>
-      <c r="AW15" s="142"/>
+      <c r="AT15" s="209"/>
+      <c r="AU15" s="209"/>
+      <c r="AV15" s="209"/>
+      <c r="AW15" s="210"/>
       <c r="AX15" s="90"/>
       <c r="AY15" s="90"/>
       <c r="AZ15" s="90"/>
@@ -3001,13 +3001,13 @@
       <c r="BE17" s="86"/>
     </row>
     <row r="18" spans="5:57" x14ac:dyDescent="0.2">
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="189" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="191"/>
       <c r="AC18" s="72" t="s">
         <v>30</v>
       </c>
@@ -3250,13 +3250,13 @@
       <c r="I22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="146" t="s">
+      <c r="M22" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="148"/>
+      <c r="N22" s="178"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="178"/>
+      <c r="Q22" s="179"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="7" t="s">
         <v>55</v>
@@ -3342,13 +3342,13 @@
       </c>
       <c r="AF25" s="7"/>
       <c r="AG25" s="38"/>
-      <c r="AK25" s="149" t="s">
+      <c r="AK25" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="AL25" s="150"/>
-      <c r="AM25" s="150"/>
-      <c r="AN25" s="150"/>
-      <c r="AO25" s="151"/>
+      <c r="AL25" s="193"/>
+      <c r="AM25" s="193"/>
+      <c r="AN25" s="193"/>
+      <c r="AO25" s="194"/>
     </row>
     <row r="26" spans="5:57" x14ac:dyDescent="0.2">
       <c r="M26" s="48" t="s">
@@ -3521,13 +3521,13 @@
         <v>16</v>
       </c>
       <c r="Q31" s="38"/>
-      <c r="U31" s="152" t="s">
+      <c r="U31" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-      <c r="Y31" s="154"/>
+      <c r="V31" s="196"/>
+      <c r="W31" s="196"/>
+      <c r="X31" s="196"/>
+      <c r="Y31" s="197"/>
       <c r="AC31" s="51"/>
       <c r="AD31" s="8" t="s">
         <v>34</v>
@@ -3614,13 +3614,13 @@
         <v>16</v>
       </c>
       <c r="AG33" s="86"/>
-      <c r="AK33" s="134" t="s">
+      <c r="AK33" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="AL33" s="135"/>
-      <c r="AM33" s="135"/>
-      <c r="AN33" s="135"/>
-      <c r="AO33" s="136"/>
+      <c r="AL33" s="175"/>
+      <c r="AM33" s="175"/>
+      <c r="AN33" s="175"/>
+      <c r="AO33" s="176"/>
     </row>
     <row r="34" spans="5:49" x14ac:dyDescent="0.2">
       <c r="M34" s="52"/>
@@ -3789,7 +3789,7 @@
       </c>
     </row>
     <row r="38" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="N38" s="161" t="s">
+      <c r="N38" s="130" t="s">
         <v>130</v>
       </c>
       <c r="U38" s="52"/>
@@ -3855,7 +3855,7 @@
       </c>
     </row>
     <row r="43" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="V43" s="161" t="s">
+      <c r="V43" s="130" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3863,19 +3863,19 @@
     <row r="45" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E45" s="62"/>
       <c r="M45" s="62"/>
-      <c r="U45" s="164">
+      <c r="U45" s="133">
         <v>1</v>
       </c>
-      <c r="V45" s="165">
+      <c r="V45" s="134">
         <v>1</v>
       </c>
-      <c r="W45" s="165">
+      <c r="W45" s="134">
         <v>100</v>
       </c>
-      <c r="X45" s="165" t="s">
+      <c r="X45" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="Y45" s="166" t="s">
+      <c r="Y45" s="135" t="s">
         <v>108</v>
       </c>
       <c r="AC45" s="62"/>
@@ -3883,20 +3883,20 @@
       <c r="AS45" s="62"/>
     </row>
     <row r="46" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="E46" s="155" t="s">
+      <c r="E46" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="157"/>
-      <c r="M46" s="176" t="s">
+      <c r="F46" s="199"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="200"/>
+      <c r="M46" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="N46" s="177"/>
-      <c r="O46" s="177"/>
-      <c r="P46" s="177"/>
-      <c r="Q46" s="178"/>
+      <c r="N46" s="181"/>
+      <c r="O46" s="181"/>
+      <c r="P46" s="181"/>
+      <c r="Q46" s="182"/>
       <c r="U46" s="6">
         <v>2</v>
       </c>
@@ -3912,27 +3912,27 @@
       <c r="Y46" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="AC46" s="130" t="s">
+      <c r="AC46" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="AD46" s="131"/>
-      <c r="AE46" s="131"/>
-      <c r="AF46" s="131"/>
-      <c r="AG46" s="133"/>
-      <c r="AK46" s="190" t="s">
+      <c r="AD46" s="184"/>
+      <c r="AE46" s="184"/>
+      <c r="AF46" s="184"/>
+      <c r="AG46" s="185"/>
+      <c r="AK46" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="AL46" s="191"/>
-      <c r="AM46" s="191"/>
-      <c r="AN46" s="191"/>
-      <c r="AO46" s="192"/>
-      <c r="AS46" s="198" t="s">
+      <c r="AL46" s="187"/>
+      <c r="AM46" s="187"/>
+      <c r="AN46" s="187"/>
+      <c r="AO46" s="188"/>
+      <c r="AS46" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="AT46" s="199"/>
-      <c r="AU46" s="199"/>
-      <c r="AV46" s="199"/>
-      <c r="AW46" s="200"/>
+      <c r="AT46" s="172"/>
+      <c r="AU46" s="172"/>
+      <c r="AV46" s="172"/>
+      <c r="AW46" s="173"/>
     </row>
     <row r="47" spans="5:49" x14ac:dyDescent="0.2">
       <c r="E47" s="12" t="s">
@@ -3950,34 +3950,34 @@
       <c r="I47" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="179" t="s">
+      <c r="M47" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="180" t="s">
+      <c r="N47" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="180" t="s">
+      <c r="O47" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="P47" s="180" t="s">
+      <c r="P47" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="Q47" s="181" t="s">
+      <c r="Q47" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="167">
+      <c r="U47" s="136">
         <v>3</v>
       </c>
-      <c r="V47" s="162">
+      <c r="V47" s="131">
         <v>1</v>
       </c>
-      <c r="W47" s="162">
+      <c r="W47" s="131">
         <v>400</v>
       </c>
-      <c r="X47" s="162" t="s">
+      <c r="X47" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="Y47" s="168" t="s">
+      <c r="Y47" s="137" t="s">
         <v>116</v>
       </c>
       <c r="AC47" s="77" t="s">
@@ -3995,34 +3995,34 @@
       <c r="AG47" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AK47" s="193" t="s">
+      <c r="AK47" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="AL47" s="194" t="s">
+      <c r="AL47" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="AM47" s="194" t="s">
+      <c r="AM47" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="AN47" s="194" t="s">
+      <c r="AN47" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="AO47" s="195" t="s">
+      <c r="AO47" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="AS47" s="201" t="s">
+      <c r="AS47" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="AT47" s="202" t="s">
+      <c r="AT47" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AU47" s="202" t="s">
+      <c r="AU47" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="AV47" s="202" t="s">
+      <c r="AV47" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="AW47" s="203" t="s">
+      <c r="AW47" s="163" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4040,19 +4040,19 @@
         <v>12</v>
       </c>
       <c r="I48" s="34"/>
-      <c r="M48" s="182" t="s">
+      <c r="M48" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="N48" s="174" t="s">
+      <c r="N48" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="O48" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="P48" s="174" t="s">
+      <c r="O48" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="P48" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="Q48" s="183"/>
+      <c r="Q48" s="149"/>
       <c r="U48" s="6">
         <v>4</v>
       </c>
@@ -4081,47 +4081,47 @@
         <v>12</v>
       </c>
       <c r="AG48" s="88"/>
-      <c r="AK48" s="196" t="s">
+      <c r="AK48" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="AL48" s="188" t="s">
+      <c r="AL48" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="AM48" s="188" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN48" s="188" t="s">
+      <c r="AM48" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN48" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="AO48" s="197"/>
-      <c r="AS48" s="204" t="s">
+      <c r="AO48" s="160"/>
+      <c r="AS48" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="AT48" s="205" t="s">
+      <c r="AT48" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="AU48" s="205" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV48" s="205" t="s">
+      <c r="AU48" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV48" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="AW48" s="206"/>
+      <c r="AW48" s="166"/>
     </row>
     <row r="49" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="E49" s="172" t="s">
+      <c r="E49" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="173" t="s">
+      <c r="F49" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="174" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="175"/>
+      <c r="G49" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="144"/>
       <c r="M49" s="16" t="s">
         <v>30</v>
       </c>
@@ -4191,19 +4191,19 @@
       <c r="AW49" s="36"/>
     </row>
     <row r="50" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="E50" s="209" t="s">
+      <c r="E50" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="187" t="s">
+      <c r="F50" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="188" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="189" t="s">
+      <c r="G50" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="155" t="s">
         <v>88</v>
       </c>
       <c r="M50" s="6"/>
@@ -4217,19 +4217,19 @@
         <v>16</v>
       </c>
       <c r="Q50" s="38"/>
-      <c r="U50" s="167">
+      <c r="U50" s="136">
         <v>6</v>
       </c>
-      <c r="V50" s="162">
+      <c r="V50" s="131">
         <v>1</v>
       </c>
-      <c r="W50" s="162">
+      <c r="W50" s="131">
         <v>400</v>
       </c>
-      <c r="X50" s="162" t="s">
+      <c r="X50" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="Y50" s="168" t="s">
+      <c r="Y50" s="137" t="s">
         <v>116</v>
       </c>
       <c r="AC50" s="6"/>
@@ -4267,17 +4267,17 @@
       <c r="AW50" s="38"/>
     </row>
     <row r="51" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="E51" s="210" t="s">
+      <c r="E51" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="207" t="s">
+      <c r="F51" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="205" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="205"/>
-      <c r="I51" s="208" t="s">
+      <c r="G51" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="165"/>
+      <c r="I51" s="168" t="s">
         <v>90</v>
       </c>
       <c r="M51" s="6"/>
@@ -4429,19 +4429,19 @@
         <v>16</v>
       </c>
       <c r="Q53" s="38"/>
-      <c r="U53" s="167">
+      <c r="U53" s="136">
         <v>9</v>
       </c>
-      <c r="V53" s="163">
+      <c r="V53" s="132">
         <v>3</v>
       </c>
-      <c r="W53" s="162">
+      <c r="W53" s="131">
         <v>2000</v>
       </c>
-      <c r="X53" s="162" t="s">
+      <c r="X53" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="Y53" s="168" t="s">
+      <c r="Y53" s="137" t="s">
         <v>116</v>
       </c>
       <c r="AC53" s="6"/>
@@ -4488,19 +4488,19 @@
       <c r="Q54" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="U54" s="169">
+      <c r="U54" s="138">
         <v>10</v>
       </c>
-      <c r="V54" s="170">
+      <c r="V54" s="139">
         <v>3</v>
       </c>
-      <c r="W54" s="170">
+      <c r="W54" s="139">
         <v>1200</v>
       </c>
-      <c r="X54" s="170" t="s">
+      <c r="X54" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="Y54" s="171" t="s">
+      <c r="Y54" s="140" t="s">
         <v>116</v>
       </c>
       <c r="AC54" s="6"/>
@@ -4608,10 +4608,10 @@
       </c>
     </row>
     <row r="57" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="L57" s="160"/>
-      <c r="M57" s="160"/>
-      <c r="N57" s="160"/>
-      <c r="O57" s="160"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="129"/>
+      <c r="O57" s="129"/>
       <c r="AC57" s="6"/>
       <c r="AD57" s="8" t="s">
         <v>35</v>
@@ -4633,10 +4633,10 @@
       <c r="AS57" s="118"/>
     </row>
     <row r="58" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="L58" s="160"/>
-      <c r="M58" s="160"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
       <c r="N58" s="126"/>
-      <c r="O58" s="160"/>
+      <c r="O58" s="129"/>
       <c r="AC58" s="6"/>
       <c r="AD58" s="8" t="s">
         <v>40</v>
@@ -4662,10 +4662,10 @@
       <c r="AS58" s="118"/>
     </row>
     <row r="59" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="L59" s="160"/>
-      <c r="M59" s="160"/>
-      <c r="N59" s="160"/>
-      <c r="O59" s="160"/>
+      <c r="L59" s="129"/>
+      <c r="M59" s="129"/>
+      <c r="N59" s="129"/>
+      <c r="O59" s="129"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="8" t="s">
         <v>43</v>
@@ -4718,13 +4718,13 @@
       <c r="U62" s="62"/>
     </row>
     <row r="63" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="U63" s="146" t="s">
+      <c r="U63" s="177" t="s">
         <v>128</v>
       </c>
-      <c r="V63" s="147"/>
-      <c r="W63" s="147"/>
-      <c r="X63" s="147"/>
-      <c r="Y63" s="148"/>
+      <c r="V63" s="178"/>
+      <c r="W63" s="178"/>
+      <c r="X63" s="178"/>
+      <c r="Y63" s="179"/>
     </row>
     <row r="64" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U64" s="43" t="s">
@@ -4758,28 +4758,28 @@
         <v>12</v>
       </c>
       <c r="Y65" s="56"/>
-      <c r="AC65" s="134" t="s">
+      <c r="AC65" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="AD65" s="135"/>
-      <c r="AE65" s="135"/>
-      <c r="AF65" s="135"/>
-      <c r="AG65" s="136"/>
+      <c r="AD65" s="175"/>
+      <c r="AE65" s="175"/>
+      <c r="AF65" s="175"/>
+      <c r="AG65" s="176"/>
     </row>
     <row r="66" spans="21:34" x14ac:dyDescent="0.2">
-      <c r="U66" s="184" t="s">
+      <c r="U66" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="V66" s="185" t="s">
+      <c r="V66" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="W66" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="X66" s="185" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y66" s="186"/>
+      <c r="W66" s="151" t="s">
+        <v>11</v>
+      </c>
+      <c r="X66" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y66" s="152"/>
       <c r="AC66" s="100" t="s">
         <v>4</v>
       </c>
@@ -4901,6 +4901,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AK6:AO6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="BA11:BE11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="AK25:AO25"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="E46:I46"/>
     <mergeCell ref="AS46:AW46"/>
     <mergeCell ref="AC65:AG65"/>
     <mergeCell ref="AK33:AO33"/>
@@ -4908,16 +4918,6 @@
     <mergeCell ref="M46:Q46"/>
     <mergeCell ref="AC46:AG46"/>
     <mergeCell ref="AK46:AO46"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="AK25:AO25"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="AK6:AO6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="BA11:BE11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AS15:AW15"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/recursos/DataBase/Base de Datos 035 v1.xlsx
+++ b/recursos/DataBase/Base de Datos 035 v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omaravalos/Documents/Proyecto 035/code035/recursos/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341CBB68-6248-3147-8462-CD1F5F84D300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E97075-B759-9D40-93DC-1315730397B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura v1" sheetId="7" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>varchar (20)</t>
   </si>
   <si>
-    <t>Administrador, Operador, Clientes, etc</t>
-  </si>
-  <si>
     <t>contrasena</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>id_actividad?</t>
+  </si>
+  <si>
+    <t>Administrador, Clientes, etc</t>
   </si>
 </sst>
 </file>
@@ -1051,6 +1051,99 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1060,24 +1153,6 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1087,15 +1162,6 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1103,72 +1169,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2333,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" topLeftCell="AE27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2462,23 +2462,23 @@
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="AJ6" s="91"/>
-      <c r="AK6" s="201" t="s">
+      <c r="AK6" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AL6" s="202"/>
-      <c r="AM6" s="202"/>
-      <c r="AN6" s="202"/>
-      <c r="AO6" s="203"/>
+      <c r="AL6" s="172"/>
+      <c r="AM6" s="172"/>
+      <c r="AN6" s="172"/>
+      <c r="AO6" s="173"/>
       <c r="AP6" s="105"/>
       <c r="AQ6" s="90"/>
       <c r="AR6" s="90"/>
-      <c r="AS6" s="183" t="s">
+      <c r="AS6" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="AT6" s="184"/>
-      <c r="AU6" s="184"/>
-      <c r="AV6" s="204"/>
-      <c r="AW6" s="185"/>
+      <c r="AT6" s="175"/>
+      <c r="AU6" s="175"/>
+      <c r="AV6" s="176"/>
+      <c r="AW6" s="177"/>
       <c r="AX6" s="90"/>
       <c r="AY6" s="90"/>
       <c r="AZ6" s="90"/>
@@ -2601,7 +2601,7 @@
         <v>16</v>
       </c>
       <c r="AW9" s="86" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AX9" s="90"/>
       <c r="AY9" s="90"/>
@@ -2616,7 +2616,7 @@
       <c r="AJ10" s="91"/>
       <c r="AK10" s="52"/>
       <c r="AL10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM10" s="8" t="s">
         <v>15</v>
@@ -2630,16 +2630,16 @@
       <c r="AR10" s="90"/>
       <c r="AS10" s="95"/>
       <c r="AT10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV10" s="122" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW10" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="AU10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV10" s="122" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW10" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="AX10" s="90"/>
       <c r="AY10" s="90"/>
@@ -2658,7 +2658,7 @@
         <v>18</v>
       </c>
       <c r="AM11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN11" s="8" t="s">
         <v>16</v>
@@ -2675,35 +2675,35 @@
       <c r="AX11" s="90"/>
       <c r="AY11" s="90"/>
       <c r="AZ11" s="90"/>
-      <c r="BA11" s="174" t="s">
+      <c r="BA11" s="178" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB11" s="179"/>
+      <c r="BC11" s="179"/>
+      <c r="BD11" s="179"/>
+      <c r="BE11" s="180"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AC12" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="BB11" s="175"/>
-      <c r="BC11" s="175"/>
-      <c r="BD11" s="175"/>
-      <c r="BE11" s="176"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="AC12" s="205" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD12" s="206"/>
-      <c r="AE12" s="206"/>
-      <c r="AF12" s="206"/>
-      <c r="AG12" s="207"/>
+      <c r="AD12" s="182"/>
+      <c r="AE12" s="182"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="183"/>
       <c r="AJ12" s="91"/>
       <c r="AK12" s="52"/>
       <c r="AL12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AM12" s="8" t="s">
+      <c r="AN12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO12" s="86" t="s">
         <v>28</v>
-      </c>
-      <c r="AN12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO12" s="86" t="s">
-        <v>29</v>
       </c>
       <c r="AP12" s="105"/>
       <c r="AQ12" s="90"/>
@@ -2750,10 +2750,10 @@
       </c>
       <c r="AJ13" s="91"/>
       <c r="AK13" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL13" s="63" t="s">
         <v>30</v>
-      </c>
-      <c r="AL13" s="63" t="s">
-        <v>31</v>
       </c>
       <c r="AM13" s="63" t="s">
         <v>11</v>
@@ -2777,7 +2777,7 @@
         <v>9</v>
       </c>
       <c r="BB13" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BC13" s="75" t="s">
         <v>11</v>
@@ -2792,7 +2792,7 @@
         <v>9</v>
       </c>
       <c r="AD14" s="68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE14" s="68" t="s">
         <v>11</v>
@@ -2804,7 +2804,7 @@
       <c r="AJ14" s="91"/>
       <c r="AK14" s="52"/>
       <c r="AL14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AM14" s="28" t="s">
         <v>11</v>
@@ -2825,10 +2825,10 @@
       <c r="AY14" s="90"/>
       <c r="AZ14" s="90"/>
       <c r="BA14" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB14" s="63" t="s">
         <v>30</v>
-      </c>
-      <c r="BB14" s="63" t="s">
-        <v>31</v>
       </c>
       <c r="BC14" s="63" t="s">
         <v>11</v>
@@ -2844,7 +2844,7 @@
         <v>18</v>
       </c>
       <c r="AE15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF15" s="8" t="s">
         <v>16</v>
@@ -2853,7 +2853,7 @@
       <c r="AJ15" s="91"/>
       <c r="AK15" s="52"/>
       <c r="AL15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM15" s="28" t="s">
         <v>11</v>
@@ -2863,21 +2863,21 @@
       <c r="AP15" s="105"/>
       <c r="AQ15" s="90"/>
       <c r="AR15" s="90"/>
-      <c r="AS15" s="208" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT15" s="209"/>
-      <c r="AU15" s="209"/>
-      <c r="AV15" s="209"/>
-      <c r="AW15" s="210"/>
+      <c r="AS15" s="184" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT15" s="185"/>
+      <c r="AU15" s="185"/>
+      <c r="AV15" s="185"/>
+      <c r="AW15" s="186"/>
       <c r="AX15" s="90"/>
       <c r="AY15" s="90"/>
       <c r="AZ15" s="90"/>
       <c r="BA15" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB15" s="115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BC15" s="115" t="s">
         <v>11</v>
@@ -2890,24 +2890,24 @@
     <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="AC16" s="51"/>
       <c r="AD16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE16" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG16" s="31" t="s">
         <v>38</v>
-      </c>
-      <c r="AE16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG16" s="31" t="s">
-        <v>39</v>
       </c>
       <c r="AJ16" s="91"/>
       <c r="AK16" s="52"/>
       <c r="AL16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM16" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="AM16" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="AN16" s="8" t="s">
         <v>16</v>
@@ -2936,7 +2936,7 @@
       <c r="AZ16" s="90"/>
       <c r="BA16" s="52"/>
       <c r="BB16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BC16" s="28" t="s">
         <v>11</v>
@@ -2949,10 +2949,10 @@
     <row r="17" spans="5:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E17" s="62"/>
       <c r="AC17" s="69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD17" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE17" s="71" t="s">
         <v>11</v>
@@ -2964,10 +2964,10 @@
       <c r="AJ17" s="91"/>
       <c r="AK17" s="52"/>
       <c r="AL17" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM17" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN17" s="28"/>
       <c r="AO17" s="86"/>
@@ -2978,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="AT17" s="115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AU17" s="115" t="s">
         <v>11</v>
@@ -2992,7 +2992,7 @@
       <c r="AZ17" s="90"/>
       <c r="BA17" s="52"/>
       <c r="BB17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BC17" s="28" t="s">
         <v>11</v>
@@ -3001,18 +3001,18 @@
       <c r="BE17" s="86"/>
     </row>
     <row r="18" spans="5:57" x14ac:dyDescent="0.2">
-      <c r="E18" s="189" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="191"/>
+      <c r="E18" s="187" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="189"/>
       <c r="AC18" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD18" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE18" s="22" t="s">
         <v>11</v>
@@ -3024,16 +3024,16 @@
       <c r="AJ18" s="91"/>
       <c r="AK18" s="6"/>
       <c r="AL18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO18" s="31" t="s">
         <v>46</v>
-      </c>
-      <c r="AM18" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO18" s="31" t="s">
-        <v>47</v>
       </c>
       <c r="AP18" s="105"/>
       <c r="AQ18" s="90"/>
@@ -3049,17 +3049,17 @@
         <v>16</v>
       </c>
       <c r="AW18" s="86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AX18" s="90"/>
       <c r="AY18" s="90"/>
       <c r="AZ18" s="90"/>
       <c r="BA18" s="52"/>
       <c r="BB18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC18" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="BC18" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="BD18" s="8" t="s">
         <v>16</v>
@@ -3083,10 +3083,10 @@
         <v>8</v>
       </c>
       <c r="AC19" s="73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD19" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE19" s="75" t="s">
         <v>11</v>
@@ -3098,23 +3098,23 @@
       <c r="AJ19" s="91"/>
       <c r="AK19" s="95"/>
       <c r="AL19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO19" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO19" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="AP19" s="105"/>
       <c r="AQ19" s="90"/>
       <c r="AR19" s="90"/>
       <c r="AS19" s="116"/>
       <c r="AT19" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AU19" s="28" t="s">
         <v>11</v>
@@ -3128,10 +3128,10 @@
       <c r="AZ19" s="90"/>
       <c r="BA19" s="95"/>
       <c r="BB19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BC19" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BD19" s="11"/>
       <c r="BE19" s="32"/>
@@ -3141,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>11</v>
@@ -3152,10 +3152,10 @@
       <c r="I20" s="30"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="38"/>
@@ -3170,16 +3170,16 @@
       <c r="AR20" s="90"/>
       <c r="AS20" s="95"/>
       <c r="AT20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW20" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="AU20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW20" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="AX20" s="90"/>
       <c r="AY20" s="90"/>
@@ -3202,12 +3202,12 @@
         <v>16</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" s="62"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE21" s="50" t="s">
         <v>19</v>
@@ -3239,27 +3239,27 @@
     <row r="22" spans="5:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="177" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="178"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="178"/>
-      <c r="Q22" s="179"/>
+      <c r="M22" s="190" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="192"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE22" s="50" t="s">
         <v>15</v>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="AC23" s="6"/>
       <c r="AD23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE23" s="50" t="s">
         <v>15</v>
@@ -3299,7 +3299,7 @@
         <v>9</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O24" s="18" t="s">
         <v>11</v>
@@ -3310,7 +3310,7 @@
       <c r="Q24" s="56"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE24" s="50" t="s">
         <v>15</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="25" spans="5:57" x14ac:dyDescent="0.2">
       <c r="M25" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N25" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O25" s="47" t="s">
         <v>11</v>
@@ -3335,27 +3335,27 @@
       <c r="Q25" s="57"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE25" s="50" t="s">
         <v>15</v>
       </c>
       <c r="AF25" s="7"/>
       <c r="AG25" s="38"/>
-      <c r="AK25" s="192" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL25" s="193"/>
-      <c r="AM25" s="193"/>
-      <c r="AN25" s="193"/>
-      <c r="AO25" s="194"/>
+      <c r="AK25" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL25" s="194"/>
+      <c r="AM25" s="194"/>
+      <c r="AN25" s="194"/>
+      <c r="AO25" s="195"/>
     </row>
     <row r="26" spans="5:57" x14ac:dyDescent="0.2">
       <c r="M26" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N26" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O26" s="49" t="s">
         <v>11</v>
@@ -3366,10 +3366,10 @@
       <c r="Q26" s="58"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE26" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF26" s="7"/>
       <c r="AG26" s="38"/>
@@ -3392,7 +3392,7 @@
     <row r="27" spans="5:57" x14ac:dyDescent="0.2">
       <c r="M27" s="6"/>
       <c r="N27" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O27" s="50" t="s">
         <v>19</v>
@@ -3401,10 +3401,10 @@
       <c r="Q27" s="38"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE27" s="50" t="s">
         <v>65</v>
-      </c>
-      <c r="AE27" s="50" t="s">
-        <v>66</v>
       </c>
       <c r="AF27" s="7"/>
       <c r="AG27" s="38"/>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="AL27" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM27" s="22" t="s">
         <v>11</v>
@@ -3425,19 +3425,19 @@
     <row r="28" spans="5:57" x14ac:dyDescent="0.2">
       <c r="M28" s="6"/>
       <c r="N28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="50" t="s">
         <v>68</v>
-      </c>
-      <c r="O28" s="50" t="s">
-        <v>69</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="38"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE28" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF28" s="7"/>
       <c r="AG28" s="38"/>
@@ -3446,7 +3446,7 @@
         <v>18</v>
       </c>
       <c r="AM28" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN28" s="8" t="s">
         <v>16</v>
@@ -3456,7 +3456,7 @@
     <row r="29" spans="5:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M29" s="51"/>
       <c r="N29" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O29" s="50" t="s">
         <v>15</v>
@@ -3465,34 +3465,34 @@
       <c r="Q29" s="38"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE29" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF29" s="7"/>
       <c r="AG29" s="38"/>
       <c r="AK29" s="9"/>
       <c r="AL29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO29" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="AM29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO29" s="32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="5:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M30" s="51"/>
       <c r="N30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>16</v>
@@ -3501,7 +3501,7 @@
       <c r="U30" s="62"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE30" s="50" t="s">
         <v>19</v>
@@ -3512,25 +3512,25 @@
     <row r="31" spans="5:57" x14ac:dyDescent="0.2">
       <c r="M31" s="51"/>
       <c r="N31" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="38"/>
+      <c r="U31" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="O31" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="P31" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q31" s="38"/>
-      <c r="U31" s="195" t="s">
-        <v>77</v>
-      </c>
-      <c r="V31" s="196"/>
-      <c r="W31" s="196"/>
-      <c r="X31" s="196"/>
-      <c r="Y31" s="197"/>
+      <c r="V31" s="197"/>
+      <c r="W31" s="197"/>
+      <c r="X31" s="197"/>
+      <c r="Y31" s="198"/>
       <c r="AC31" s="51"/>
       <c r="AD31" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE31" s="28" t="s">
         <v>11</v>
@@ -3543,10 +3543,10 @@
     <row r="32" spans="5:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M32" s="51"/>
       <c r="N32" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O32" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P32" s="28" t="s">
         <v>16</v>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="AC32" s="51"/>
       <c r="AD32" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE32" s="28" t="s">
         <v>11</v>
@@ -3581,7 +3581,7 @@
     <row r="33" spans="5:49" x14ac:dyDescent="0.2">
       <c r="M33" s="52"/>
       <c r="N33" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O33" s="28" t="s">
         <v>11</v>
@@ -3594,7 +3594,7 @@
         <v>9</v>
       </c>
       <c r="V33" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W33" s="27" t="s">
         <v>11</v>
@@ -3605,27 +3605,27 @@
       <c r="Y33" s="41"/>
       <c r="AC33" s="51"/>
       <c r="AD33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE33" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AE33" s="28" t="s">
-        <v>41</v>
-      </c>
       <c r="AF33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AG33" s="86"/>
-      <c r="AK33" s="174" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL33" s="175"/>
-      <c r="AM33" s="175"/>
-      <c r="AN33" s="175"/>
-      <c r="AO33" s="176"/>
+      <c r="AK33" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL33" s="179"/>
+      <c r="AM33" s="179"/>
+      <c r="AN33" s="179"/>
+      <c r="AO33" s="180"/>
     </row>
     <row r="34" spans="5:49" x14ac:dyDescent="0.2">
       <c r="M34" s="52"/>
       <c r="N34" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O34" s="28" t="s">
         <v>11</v>
@@ -3633,10 +3633,10 @@
       <c r="P34" s="28"/>
       <c r="Q34" s="38"/>
       <c r="U34" s="103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V34" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W34" s="61" t="s">
         <v>11</v>
@@ -3647,10 +3647,10 @@
       <c r="Y34" s="64"/>
       <c r="AC34" s="51"/>
       <c r="AD34" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE34" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF34" s="28"/>
       <c r="AG34" s="86"/>
@@ -3673,10 +3673,10 @@
     <row r="35" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M35" s="52"/>
       <c r="N35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="O35" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="P35" s="8" t="s">
         <v>16</v>
@@ -3684,31 +3684,31 @@
       <c r="Q35" s="38"/>
       <c r="U35" s="6"/>
       <c r="V35" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W35" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X35" s="7"/>
       <c r="Y35" s="38"/>
       <c r="AC35" s="76"/>
       <c r="AD35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG35" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="AE35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG35" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="AK35" s="102" t="s">
         <v>9</v>
       </c>
       <c r="AL35" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM35" s="75" t="s">
         <v>11</v>
@@ -3721,16 +3721,16 @@
     <row r="36" spans="5:49" x14ac:dyDescent="0.2">
       <c r="M36" s="52"/>
       <c r="N36" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O36" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P36" s="28"/>
       <c r="Q36" s="38"/>
       <c r="U36" s="6"/>
       <c r="V36" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="7" t="s">
         <v>11</v>
@@ -3744,7 +3744,7 @@
         <v>18</v>
       </c>
       <c r="AM36" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN36" s="8" t="s">
         <v>16</v>
@@ -3754,7 +3754,7 @@
     <row r="37" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M37" s="53"/>
       <c r="N37" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O37" s="54" t="s">
         <v>11</v>
@@ -3765,7 +3765,7 @@
       <c r="Q37" s="59"/>
       <c r="U37" s="6"/>
       <c r="V37" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W37" s="7" t="s">
         <v>11</v>
@@ -3776,25 +3776,25 @@
       <c r="Y37" s="38"/>
       <c r="AK37" s="9"/>
       <c r="AL37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO37" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="AM37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO37" s="32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="38" spans="5:49" x14ac:dyDescent="0.2">
       <c r="N38" s="130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U38" s="52"/>
       <c r="V38" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W38" s="28" t="s">
         <v>11</v>
@@ -3807,7 +3807,7 @@
     <row r="39" spans="5:49" x14ac:dyDescent="0.2">
       <c r="U39" s="52"/>
       <c r="V39" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W39" s="28" t="s">
         <v>11</v>
@@ -3818,10 +3818,10 @@
     <row r="40" spans="5:49" x14ac:dyDescent="0.2">
       <c r="U40" s="52"/>
       <c r="V40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W40" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="W40" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="X40" s="8" t="s">
         <v>16</v>
@@ -3831,10 +3831,10 @@
     <row r="41" spans="5:49" x14ac:dyDescent="0.2">
       <c r="U41" s="52"/>
       <c r="V41" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W41" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X41" s="28"/>
       <c r="Y41" s="38"/>
@@ -3842,21 +3842,21 @@
     <row r="42" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U42" s="9"/>
       <c r="V42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="X42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y42" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="W42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y42" s="32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="43" spans="5:49" x14ac:dyDescent="0.2">
       <c r="V43" s="130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3873,30 +3873,30 @@
         <v>100</v>
       </c>
       <c r="X45" s="134" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y45" s="135" t="s">
         <v>107</v>
-      </c>
-      <c r="Y45" s="135" t="s">
-        <v>108</v>
       </c>
       <c r="AC45" s="62"/>
       <c r="AK45" s="62"/>
       <c r="AS45" s="62"/>
     </row>
     <row r="46" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="E46" s="198" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="199"/>
-      <c r="G46" s="199"/>
-      <c r="H46" s="199"/>
-      <c r="I46" s="200"/>
-      <c r="M46" s="180" t="s">
-        <v>97</v>
-      </c>
-      <c r="N46" s="181"/>
-      <c r="O46" s="181"/>
-      <c r="P46" s="181"/>
-      <c r="Q46" s="182"/>
+      <c r="E46" s="199" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="200"/>
+      <c r="G46" s="200"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="201"/>
+      <c r="M46" s="205" t="s">
+        <v>96</v>
+      </c>
+      <c r="N46" s="206"/>
+      <c r="O46" s="206"/>
+      <c r="P46" s="206"/>
+      <c r="Q46" s="207"/>
       <c r="U46" s="6">
         <v>2</v>
       </c>
@@ -3907,32 +3907,32 @@
         <v>200</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y46" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC46" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC46" s="174" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD46" s="175"/>
+      <c r="AE46" s="175"/>
+      <c r="AF46" s="175"/>
+      <c r="AG46" s="177"/>
+      <c r="AK46" s="208" t="s">
         <v>98</v>
       </c>
-      <c r="AD46" s="184"/>
-      <c r="AE46" s="184"/>
-      <c r="AF46" s="184"/>
-      <c r="AG46" s="185"/>
-      <c r="AK46" s="186" t="s">
+      <c r="AL46" s="209"/>
+      <c r="AM46" s="209"/>
+      <c r="AN46" s="209"/>
+      <c r="AO46" s="210"/>
+      <c r="AS46" s="202" t="s">
         <v>99</v>
       </c>
-      <c r="AL46" s="187"/>
-      <c r="AM46" s="187"/>
-      <c r="AN46" s="187"/>
-      <c r="AO46" s="188"/>
-      <c r="AS46" s="171" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT46" s="172"/>
-      <c r="AU46" s="172"/>
-      <c r="AV46" s="172"/>
-      <c r="AW46" s="173"/>
+      <c r="AT46" s="203"/>
+      <c r="AU46" s="203"/>
+      <c r="AV46" s="203"/>
+      <c r="AW46" s="204"/>
     </row>
     <row r="47" spans="5:49" x14ac:dyDescent="0.2">
       <c r="E47" s="12" t="s">
@@ -3975,10 +3975,10 @@
         <v>400</v>
       </c>
       <c r="X47" s="131" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y47" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC47" s="77" t="s">
         <v>4</v>
@@ -4031,7 +4031,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>11</v>
@@ -4044,7 +4044,7 @@
         <v>9</v>
       </c>
       <c r="N48" s="143" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O48" s="143" t="s">
         <v>11</v>
@@ -4063,16 +4063,16 @@
         <v>100</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y48" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC48" s="79" t="s">
         <v>9</v>
       </c>
       <c r="AD48" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE48" s="63" t="s">
         <v>11</v>
@@ -4085,7 +4085,7 @@
         <v>9</v>
       </c>
       <c r="AL48" s="154" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AM48" s="154" t="s">
         <v>11</v>
@@ -4098,7 +4098,7 @@
         <v>9</v>
       </c>
       <c r="AT48" s="165" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AU48" s="165" t="s">
         <v>11</v>
@@ -4110,10 +4110,10 @@
     </row>
     <row r="49" spans="5:49" x14ac:dyDescent="0.2">
       <c r="E49" s="141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F49" s="142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" s="143" t="s">
         <v>11</v>
@@ -4123,10 +4123,10 @@
       </c>
       <c r="I49" s="144"/>
       <c r="M49" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O49" s="18" t="s">
         <v>11</v>
@@ -4145,29 +4145,29 @@
         <v>200</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y49" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC49" s="6"/>
       <c r="AD49" s="7" t="s">
         <v>18</v>
       </c>
       <c r="AE49" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF49" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AG49" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK49" s="103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL49" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM49" s="61" t="s">
         <v>11</v>
@@ -4177,10 +4177,10 @@
       </c>
       <c r="AO49" s="64"/>
       <c r="AS49" s="117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT49" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU49" s="20" t="s">
         <v>11</v>
@@ -4192,26 +4192,26 @@
     </row>
     <row r="50" spans="5:49" x14ac:dyDescent="0.2">
       <c r="E50" s="169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="155" t="s">
         <v>87</v>
-      </c>
-      <c r="G50" s="154" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="154" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="155" t="s">
-        <v>88</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="7" t="s">
         <v>18</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P50" s="8" t="s">
         <v>16</v>
@@ -4227,25 +4227,25 @@
         <v>400</v>
       </c>
       <c r="X50" s="131" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y50" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC50" s="6"/>
       <c r="AD50" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE50" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="7"/>
       <c r="AG50" s="38"/>
       <c r="AK50" s="73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL50" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AM50" s="104" t="s">
         <v>11</v>
@@ -4259,7 +4259,7 @@
         <v>18</v>
       </c>
       <c r="AU50" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV50" s="8" t="s">
         <v>16</v>
@@ -4268,24 +4268,24 @@
     </row>
     <row r="51" spans="5:49" x14ac:dyDescent="0.2">
       <c r="E51" s="170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F51" s="167" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" s="165" t="s">
         <v>11</v>
       </c>
       <c r="H51" s="165"/>
       <c r="I51" s="168" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P51" s="8" t="s">
         <v>16</v>
@@ -4301,32 +4301,32 @@
         <v>600</v>
       </c>
       <c r="X51" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y51" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC51" s="6"/>
       <c r="AD51" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE51" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF51" s="7"/>
       <c r="AG51" s="38"/>
       <c r="AK51" s="51"/>
       <c r="AL51" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM51" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN51" s="7"/>
       <c r="AO51" s="38"/>
       <c r="AS51" s="51"/>
       <c r="AT51" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AU51" s="28" t="s">
         <v>11</v>
@@ -4339,19 +4339,19 @@
     <row r="52" spans="5:49" x14ac:dyDescent="0.2">
       <c r="E52" s="51"/>
       <c r="F52" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="38"/>
       <c r="M52" s="6"/>
       <c r="N52" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P52" s="8" t="s">
         <v>16</v>
@@ -4367,14 +4367,14 @@
         <v>1000</v>
       </c>
       <c r="X52" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y52" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC52" s="6"/>
       <c r="AD52" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE52" s="7" t="s">
         <v>11</v>
@@ -4388,7 +4388,7 @@
         <v>18</v>
       </c>
       <c r="AM52" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN52" s="8" t="s">
         <v>16</v>
@@ -4396,7 +4396,7 @@
       <c r="AO52" s="38"/>
       <c r="AS52" s="51"/>
       <c r="AT52" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AU52" s="28" t="s">
         <v>11</v>
@@ -4409,10 +4409,10 @@
     <row r="53" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E53" s="76"/>
       <c r="F53" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>16</v>
@@ -4420,10 +4420,10 @@
       <c r="I53" s="39"/>
       <c r="M53" s="6"/>
       <c r="N53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O53" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="O53" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="P53" s="8" t="s">
         <v>16</v>
@@ -4439,14 +4439,14 @@
         <v>2000</v>
       </c>
       <c r="X53" s="131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y53" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC53" s="6"/>
       <c r="AD53" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE53" s="7" t="s">
         <v>11</v>
@@ -4457,16 +4457,16 @@
       <c r="AG53" s="38"/>
       <c r="AK53" s="6"/>
       <c r="AL53" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AM53" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN53" s="7"/>
       <c r="AO53" s="38"/>
       <c r="AS53" s="51"/>
       <c r="AT53" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AU53" s="28" t="s">
         <v>11</v>
@@ -4477,7 +4477,7 @@
     <row r="54" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M54" s="9"/>
       <c r="N54" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>11</v>
@@ -4486,7 +4486,7 @@
         <v>16</v>
       </c>
       <c r="Q54" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U54" s="138">
         <v>10</v>
@@ -4498,14 +4498,14 @@
         <v>1200</v>
       </c>
       <c r="X54" s="139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y54" s="140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC54" s="6"/>
       <c r="AD54" s="80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE54" s="7" t="s">
         <v>11</v>
@@ -4516,19 +4516,19 @@
       <c r="AG54" s="38"/>
       <c r="AK54" s="6"/>
       <c r="AL54" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AM54" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN54" s="7"/>
       <c r="AO54" s="38"/>
       <c r="AS54" s="51"/>
       <c r="AT54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU54" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="AU54" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="AV54" s="8" t="s">
         <v>16</v>
@@ -4538,7 +4538,7 @@
     <row r="55" spans="5:49" x14ac:dyDescent="0.2">
       <c r="AC55" s="81"/>
       <c r="AD55" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE55" s="80" t="s">
         <v>11</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="AK55" s="6"/>
       <c r="AL55" s="80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AM55" s="28" t="s">
         <v>11</v>
@@ -4562,10 +4562,10 @@
       <c r="AO55" s="38"/>
       <c r="AS55" s="51"/>
       <c r="AT55" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AU55" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AV55" s="28"/>
       <c r="AW55" s="38"/>
@@ -4573,7 +4573,7 @@
     <row r="56" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AC56" s="6"/>
       <c r="AD56" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE56" s="28" t="s">
         <v>11</v>
@@ -4584,7 +4584,7 @@
       <c r="AG56" s="38"/>
       <c r="AK56" s="51"/>
       <c r="AL56" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AM56" s="28" t="s">
         <v>11</v>
@@ -4595,16 +4595,16 @@
       <c r="AO56" s="38"/>
       <c r="AS56" s="76"/>
       <c r="AT56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU56" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW56" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="AU56" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV56" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW56" s="32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="57" spans="5:49" x14ac:dyDescent="0.2">
@@ -4614,7 +4614,7 @@
       <c r="O57" s="129"/>
       <c r="AC57" s="6"/>
       <c r="AD57" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE57" s="28" t="s">
         <v>11</v>
@@ -4623,7 +4623,7 @@
       <c r="AG57" s="38"/>
       <c r="AK57" s="51"/>
       <c r="AL57" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM57" s="28" t="s">
         <v>11</v>
@@ -4639,10 +4639,10 @@
       <c r="O58" s="129"/>
       <c r="AC58" s="6"/>
       <c r="AD58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE58" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="AE58" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="AF58" s="8" t="s">
         <v>16</v>
@@ -4650,10 +4650,10 @@
       <c r="AG58" s="38"/>
       <c r="AK58" s="51"/>
       <c r="AL58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM58" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="AM58" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="AN58" s="8" t="s">
         <v>16</v>
@@ -4668,19 +4668,19 @@
       <c r="O59" s="129"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE59" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF59" s="28"/>
       <c r="AG59" s="38"/>
       <c r="AK59" s="51"/>
       <c r="AL59" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM59" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN59" s="28"/>
       <c r="AO59" s="38"/>
@@ -4689,42 +4689,42 @@
     <row r="60" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AC60" s="9"/>
       <c r="AD60" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG60" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="AE60" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF60" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG60" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="AK60" s="76"/>
       <c r="AL60" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO60" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="AM60" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN60" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO60" s="32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="62" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U62" s="62"/>
     </row>
     <row r="63" spans="5:49" x14ac:dyDescent="0.2">
-      <c r="U63" s="177" t="s">
-        <v>128</v>
-      </c>
-      <c r="V63" s="178"/>
-      <c r="W63" s="178"/>
-      <c r="X63" s="178"/>
-      <c r="Y63" s="179"/>
+      <c r="U63" s="190" t="s">
+        <v>127</v>
+      </c>
+      <c r="V63" s="191"/>
+      <c r="W63" s="191"/>
+      <c r="X63" s="191"/>
+      <c r="Y63" s="192"/>
     </row>
     <row r="64" spans="5:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U64" s="43" t="s">
@@ -4749,7 +4749,7 @@
         <v>9</v>
       </c>
       <c r="V65" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W65" s="18" t="s">
         <v>11</v>
@@ -4758,20 +4758,20 @@
         <v>12</v>
       </c>
       <c r="Y65" s="56"/>
-      <c r="AC65" s="174" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD65" s="175"/>
-      <c r="AE65" s="175"/>
-      <c r="AF65" s="175"/>
-      <c r="AG65" s="176"/>
+      <c r="AC65" s="178" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD65" s="179"/>
+      <c r="AE65" s="179"/>
+      <c r="AF65" s="179"/>
+      <c r="AG65" s="180"/>
     </row>
     <row r="66" spans="21:34" x14ac:dyDescent="0.2">
       <c r="U66" s="150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V66" s="151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W66" s="151" t="s">
         <v>11</v>
@@ -4799,10 +4799,10 @@
     <row r="67" spans="21:34" x14ac:dyDescent="0.2">
       <c r="U67" s="6"/>
       <c r="V67" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W67" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X67" s="8" t="s">
         <v>16</v>
@@ -4812,7 +4812,7 @@
         <v>9</v>
       </c>
       <c r="AD67" s="75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE67" s="75" t="s">
         <v>11</v>
@@ -4825,7 +4825,7 @@
     <row r="68" spans="21:34" x14ac:dyDescent="0.2">
       <c r="U68" s="52"/>
       <c r="V68" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W68" s="28" t="s">
         <v>11</v>
@@ -4845,13 +4845,13 @@
         <v>16</v>
       </c>
       <c r="AG68" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="21:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U69" s="52"/>
       <c r="V69" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W69" s="28" t="s">
         <v>11</v>
@@ -4860,25 +4860,25 @@
       <c r="Y69" s="38"/>
       <c r="AC69" s="9"/>
       <c r="AD69" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF69" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG69" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="AE69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF69" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG69" s="32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="70" spans="21:34" x14ac:dyDescent="0.2">
       <c r="U70" s="52"/>
       <c r="V70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W70" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="W70" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="X70" s="8" t="s">
         <v>16</v>
@@ -4888,10 +4888,10 @@
     <row r="71" spans="21:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U71" s="95"/>
       <c r="V71" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W71" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X71" s="11"/>
       <c r="Y71" s="39"/>
@@ -4901,16 +4901,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AK6:AO6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="BA11:BE11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="AK25:AO25"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="E46:I46"/>
     <mergeCell ref="AS46:AW46"/>
     <mergeCell ref="AC65:AG65"/>
     <mergeCell ref="AK33:AO33"/>
@@ -4918,6 +4908,16 @@
     <mergeCell ref="M46:Q46"/>
     <mergeCell ref="AC46:AG46"/>
     <mergeCell ref="AK46:AO46"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="AK25:AO25"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="AK6:AO6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="BA11:BE11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AS15:AW15"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
